--- a/prot/356379915/Переход трубопровода через р. Енисей/Cрезы КД/1063.xlsx
+++ b/prot/356379915/Переход трубопровода через р. Енисей/Cрезы КД/1063.xlsx
@@ -2526,7 +2526,7 @@
         <v>0.1</v>
       </c>
       <c r="O47" s="65" t="n">
-        <v>0.07377325885658614</v>
+        <v>0.06027325885658615</v>
       </c>
       <c r="P47" s="66" t="n"/>
       <c r="Q47" s="66" t="n"/>
@@ -2545,7 +2545,7 @@
         <v>0.15</v>
       </c>
       <c r="O48" s="65" t="n">
-        <v>0.06815988828487921</v>
+        <v>0.09515988828487922</v>
       </c>
       <c r="P48" s="68">
         <f>SLOPE(O47:O49,N47:N49)</f>
@@ -2573,7 +2573,7 @@
         <v>0.2</v>
       </c>
       <c r="O49" s="65" t="n">
-        <v>0.1225465177131723</v>
+        <v>0.1090465177131723</v>
       </c>
       <c r="P49" s="71" t="n"/>
       <c r="Q49" s="71" t="n"/>
@@ -2859,26 +2859,26 @@
     </row>
     <row r="66">
       <c r="F66" s="60" t="n">
-        <v>0.003059613185509679</v>
+        <v>0.002454231195273179</v>
       </c>
       <c r="G66" s="100" t="n">
         <v>0.02948633463962219</v>
       </c>
       <c r="H66" s="100" t="n"/>
       <c r="J66" s="60" t="n">
-        <v>0.003059613185509679</v>
+        <v>0.002454231195273179</v>
       </c>
       <c r="K66" s="100" t="n">
         <v>0.02948633463962219</v>
       </c>
       <c r="L66" s="57" t="n">
-        <v>0.00273932210461141</v>
+        <v>0.003900109562886329</v>
       </c>
       <c r="M66" s="60" t="n">
         <v>0.02948633463962219</v>
       </c>
       <c r="N66" s="100" t="n">
-        <v>0.005049255661899944</v>
+        <v>0.004474532137697974</v>
       </c>
       <c r="O66" s="57" t="n">
         <v>0.02948633463962219</v>
@@ -2886,26 +2886,26 @@
     </row>
     <row r="67">
       <c r="F67" s="60" t="n">
-        <v>0.005884967673758527</v>
+        <v>0.004823904978020535</v>
       </c>
       <c r="G67" s="100" t="n">
         <v>0.05897266927924438</v>
       </c>
       <c r="H67" s="100" t="n"/>
       <c r="J67" s="60" t="n">
-        <v>0.005884967673758527</v>
+        <v>0.004823904978020535</v>
       </c>
       <c r="K67" s="100" t="n">
         <v>0.05897266927924438</v>
       </c>
       <c r="L67" s="57" t="n">
-        <v>0.005522979373770885</v>
+        <v>0.007679700191857374</v>
       </c>
       <c r="M67" s="60" t="n">
         <v>0.05897266927924438</v>
       </c>
       <c r="N67" s="100" t="n">
-        <v>0.009965061576412545</v>
+        <v>0.008686588863332321</v>
       </c>
       <c r="O67" s="57" t="n">
         <v>0.05897266927924438</v>
@@ -2913,26 +2913,26 @@
     </row>
     <row r="68">
       <c r="F68" s="60" t="n">
-        <v>0.008643849822811737</v>
+        <v>0.007190370195500053</v>
       </c>
       <c r="G68" s="100" t="n">
         <v>0.08845900391886656</v>
       </c>
       <c r="H68" s="100" t="n"/>
       <c r="J68" s="60" t="n">
-        <v>0.008643849822811737</v>
+        <v>0.007190370195500053</v>
       </c>
       <c r="K68" s="100" t="n">
         <v>0.08845900391886656</v>
       </c>
       <c r="L68" s="57" t="n">
-        <v>0.008112780551002081</v>
+        <v>0.01139361504399024</v>
       </c>
       <c r="M68" s="60" t="n">
         <v>0.08845900391886656</v>
       </c>
       <c r="N68" s="100" t="n">
-        <v>0.01477208282446911</v>
+        <v>0.01314988611876456</v>
       </c>
       <c r="O68" s="57" t="n">
         <v>0.08845900391886656</v>
@@ -2940,26 +2940,26 @@
     </row>
     <row r="69">
       <c r="F69" s="60" t="n">
-        <v>0.01150839156463252</v>
+        <v>0.009431174348546689</v>
       </c>
       <c r="G69" s="100" t="n">
         <v>0.1179453385584888</v>
       </c>
       <c r="H69" s="100" t="n"/>
       <c r="J69" s="60" t="n">
-        <v>0.01150839156463252</v>
+        <v>0.009431174348546689</v>
       </c>
       <c r="K69" s="100" t="n">
         <v>0.1179453385584888</v>
       </c>
       <c r="L69" s="57" t="n">
-        <v>0.01045135311677372</v>
+        <v>0.01491196635821351</v>
       </c>
       <c r="M69" s="60" t="n">
         <v>0.1179453385584888</v>
       </c>
       <c r="N69" s="100" t="n">
-        <v>0.01904146656220506</v>
+        <v>0.01667377476548876</v>
       </c>
       <c r="O69" s="57" t="n">
         <v>0.1179453385584888</v>
@@ -2967,26 +2967,26 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="F70" s="60" t="n">
-        <v>0.01402965071938051</v>
+        <v>0.01160963697329358</v>
       </c>
       <c r="G70" s="100" t="n">
         <v>0.1474316731981109</v>
       </c>
       <c r="H70" s="100" t="n"/>
       <c r="J70" s="60" t="n">
-        <v>0.01402965071938051</v>
+        <v>0.01160963697329358</v>
       </c>
       <c r="K70" s="100" t="n">
         <v>0.1474316731981109</v>
       </c>
       <c r="L70" s="57" t="n">
-        <v>0.01272506829801825</v>
+        <v>0.01774792558869081</v>
       </c>
       <c r="M70" s="60" t="n">
         <v>0.1474316731981109</v>
       </c>
       <c r="N70" s="100" t="n">
-        <v>0.02307919476246105</v>
+        <v>0.02079096214291975</v>
       </c>
       <c r="O70" s="57" t="n">
         <v>0.1474316731981109</v>
@@ -2994,26 +2994,26 @@
     </row>
     <row r="71">
       <c r="F71" s="60" t="n">
-        <v>0.01655576089067626</v>
+        <v>0.01355267399812479</v>
       </c>
       <c r="G71" s="100" t="n">
         <v>0.1769180078377331</v>
       </c>
       <c r="H71" s="100" t="n"/>
       <c r="J71" s="60" t="n">
-        <v>0.01655576089067626</v>
+        <v>0.01355267399812479</v>
       </c>
       <c r="K71" s="100" t="n">
         <v>0.1769180078377331</v>
       </c>
       <c r="L71" s="57" t="n">
-        <v>0.0150862395962406</v>
+        <v>0.02135313027837391</v>
       </c>
       <c r="M71" s="60" t="n">
         <v>0.1769180078377331</v>
       </c>
       <c r="N71" s="100" t="n">
-        <v>0.02764666338069892</v>
+        <v>0.02415989943442631</v>
       </c>
       <c r="O71" s="57" t="n">
         <v>0.1769180078377331</v>
@@ -3021,26 +3021,26 @@
     </row>
     <row r="72">
       <c r="F72" s="60" t="n">
-        <v>0.01866893168314458</v>
+        <v>0.0150274807954775</v>
       </c>
       <c r="G72" s="100" t="n">
         <v>0.2064043424773553</v>
       </c>
       <c r="H72" s="100" t="n"/>
       <c r="J72" s="60" t="n">
-        <v>0.01866893168314458</v>
+        <v>0.0150274807954775</v>
       </c>
       <c r="K72" s="100" t="n">
         <v>0.2064043424773553</v>
       </c>
       <c r="L72" s="57" t="n">
-        <v>0.01716354634484199</v>
+        <v>0.02358804644794201</v>
       </c>
       <c r="M72" s="60" t="n">
         <v>0.2064043424773553</v>
       </c>
       <c r="N72" s="100" t="n">
-        <v>0.03059023067275687</v>
+        <v>0.02784497327969451</v>
       </c>
       <c r="O72" s="57" t="n">
         <v>0.2064043424773553</v>
@@ -3051,26 +3051,26 @@
       <c r="B73" s="59" t="n"/>
       <c r="D73" s="101" t="n"/>
       <c r="F73" s="60" t="n">
-        <v>0.02067242647241413</v>
+        <v>0.01709755868620332</v>
       </c>
       <c r="G73" s="100" t="n">
         <v>0.2358906771169775</v>
       </c>
       <c r="H73" s="100" t="n"/>
       <c r="J73" s="60" t="n">
-        <v>0.02067242647241413</v>
+        <v>0.01709755868620332</v>
       </c>
       <c r="K73" s="100" t="n">
         <v>0.2358906771169775</v>
       </c>
       <c r="L73" s="57" t="n">
-        <v>0.01879601246008887</v>
+        <v>0.0267277766606736</v>
       </c>
       <c r="M73" s="60" t="n">
         <v>0.2358906771169775</v>
       </c>
       <c r="N73" s="100" t="n">
-        <v>0.03465529066680587</v>
+        <v>0.02989644676342599</v>
       </c>
       <c r="O73" s="57" t="n">
         <v>0.2358906771169775</v>
@@ -3078,26 +3078,26 @@
     </row>
     <row r="74">
       <c r="F74" s="60" t="n">
-        <v>0.0226098476089615</v>
+        <v>0.01835478481311505</v>
       </c>
       <c r="G74" s="100" t="n">
         <v>0.2653770117565997</v>
       </c>
       <c r="H74" s="100" t="n"/>
       <c r="J74" s="60" t="n">
-        <v>0.0226098476089615</v>
+        <v>0.01835478481311505</v>
       </c>
       <c r="K74" s="100" t="n">
         <v>0.2653770117565997</v>
       </c>
       <c r="L74" s="57" t="n">
-        <v>0.0205044680459266</v>
+        <v>0.02860209413999863</v>
       </c>
       <c r="M74" s="60" t="n">
         <v>0.2653770117565997</v>
       </c>
       <c r="N74" s="100" t="n">
-        <v>0.0368362370105443</v>
+        <v>0.03347297249956257</v>
       </c>
       <c r="O74" s="57" t="n">
         <v>0.2653770117565997</v>
@@ -3105,26 +3105,26 @@
     </row>
     <row r="75">
       <c r="F75" s="60" t="n">
-        <v>0.02410755091023974</v>
+        <v>0.02014370426359131</v>
       </c>
       <c r="G75" s="100" t="n">
         <v>0.2948633463962219</v>
       </c>
       <c r="H75" s="100" t="n"/>
       <c r="J75" s="60" t="n">
-        <v>0.02410755091023974</v>
+        <v>0.02014370426359131</v>
       </c>
       <c r="K75" s="100" t="n">
         <v>0.2948633463962219</v>
       </c>
       <c r="L75" s="57" t="n">
-        <v>0.02213632175257367</v>
+        <v>0.03114761830106684</v>
       </c>
       <c r="M75" s="60" t="n">
         <v>0.2948633463962219</v>
       </c>
       <c r="N75" s="100" t="n">
-        <v>0.04031604876277925</v>
+        <v>0.03547095401714608</v>
       </c>
       <c r="O75" s="57" t="n">
         <v>0.2948633463962219</v>
@@ -3134,26 +3134,26 @@
       <c r="A76" s="101" t="n"/>
       <c r="C76" s="102" t="n"/>
       <c r="F76" s="60" t="n">
-        <v>0.02532762683158508</v>
+        <v>0.02089696886759372</v>
       </c>
       <c r="G76" s="100" t="n">
         <v>0.3243496810358441</v>
       </c>
       <c r="H76" s="100" t="n"/>
       <c r="J76" s="60" t="n">
-        <v>0.02532762683158508</v>
+        <v>0.02089696886759372</v>
       </c>
       <c r="K76" s="100" t="n">
         <v>0.3243496810358441</v>
       </c>
       <c r="L76" s="57" t="n">
-        <v>0.02362889360772752</v>
+        <v>0.03358503096300371</v>
       </c>
       <c r="M76" s="60" t="n">
         <v>0.3243496810358441</v>
       </c>
       <c r="N76" s="100" t="n">
-        <v>0.04230165618798948</v>
+        <v>0.03782162317226191</v>
       </c>
       <c r="O76" s="57" t="n">
         <v>0.3243496810358441</v>
@@ -3161,25 +3161,25 @@
     </row>
     <row r="77" ht="15" customHeight="1">
       <c r="F77" t="n">
-        <v>0.02680372653853168</v>
+        <v>0.02209661400540263</v>
       </c>
       <c r="G77" t="n">
         <v>0.3538360156754662</v>
       </c>
       <c r="J77" t="n">
-        <v>0.02680372653853168</v>
+        <v>0.02209661400540263</v>
       </c>
       <c r="K77" t="n">
         <v>0.3538360156754662</v>
       </c>
       <c r="L77" t="n">
-        <v>0.02560606286176531</v>
+        <v>0.03556564358971568</v>
       </c>
       <c r="M77" t="n">
         <v>0.3538360156754662</v>
       </c>
       <c r="N77" t="n">
-        <v>0.04588599322724554</v>
+        <v>0.04105357313564441</v>
       </c>
       <c r="O77" t="n">
         <v>0.3538360156754662</v>
@@ -3188,25 +3188,25 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" s="101" t="n"/>
       <c r="F78" t="n">
-        <v>0.02938615732144909</v>
+        <v>0.02390966576613075</v>
       </c>
       <c r="G78" t="n">
         <v>0.3833223503150884</v>
       </c>
       <c r="J78" t="n">
-        <v>0.02938615732144909</v>
+        <v>0.02390966576613075</v>
       </c>
       <c r="K78" t="n">
         <v>0.3833223503150884</v>
       </c>
       <c r="L78" t="n">
-        <v>0.02671567989807703</v>
+        <v>0.03689026142131097</v>
       </c>
       <c r="M78" t="n">
         <v>0.3833223503150884</v>
       </c>
       <c r="N78" t="n">
-        <v>0.04748535066159604</v>
+        <v>0.04275712120659761</v>
       </c>
       <c r="O78" t="n">
         <v>0.3833223503150884</v>
@@ -3216,25 +3216,25 @@
       <c r="A79" s="101" t="n"/>
       <c r="D79" s="57" t="n"/>
       <c r="F79" t="n">
-        <v>0.03025347253801116</v>
+        <v>0.02487653778587392</v>
       </c>
       <c r="G79" t="n">
         <v>0.4128086849547106</v>
       </c>
       <c r="J79" t="n">
-        <v>0.03025347253801116</v>
+        <v>0.02487653778587392</v>
       </c>
       <c r="K79" t="n">
         <v>0.4128086849547106</v>
       </c>
       <c r="L79" t="n">
-        <v>0.02808951797641711</v>
+        <v>0.03969188915259531</v>
       </c>
       <c r="M79" t="n">
         <v>0.4128086849547106</v>
       </c>
       <c r="N79" t="n">
-        <v>0.0506782694014139</v>
+        <v>0.044615192811293</v>
       </c>
       <c r="O79" t="n">
         <v>0.4128086849547106</v>
@@ -3242,25 +3242,25 @@
     </row>
     <row r="80" ht="15" customHeight="1">
       <c r="F80" t="n">
-        <v>0.03167617323120557</v>
+        <v>0.02588467340115401</v>
       </c>
       <c r="G80" t="n">
         <v>0.4422950195943328</v>
       </c>
       <c r="J80" t="n">
-        <v>0.03167617323120557</v>
+        <v>0.02588467340115401</v>
       </c>
       <c r="K80" t="n">
         <v>0.4422950195943328</v>
       </c>
       <c r="L80" t="n">
-        <v>0.02911628560707922</v>
+        <v>0.0402701336216173</v>
       </c>
       <c r="M80" t="n">
         <v>0.4422950195943328</v>
       </c>
       <c r="N80" t="n">
-        <v>0.05383279324631239</v>
+        <v>0.04801431426021841</v>
       </c>
       <c r="O80" t="n">
         <v>0.4422950195943328</v>
@@ -3268,25 +3268,25 @@
     </row>
     <row r="81" ht="15" customHeight="1">
       <c r="F81" t="n">
-        <v>0.03334389984218748</v>
+        <v>0.02758818507299193</v>
       </c>
       <c r="G81" t="n">
         <v>0.471781354233955</v>
       </c>
       <c r="J81" t="n">
-        <v>0.03334389984218748</v>
+        <v>0.02758818507299193</v>
       </c>
       <c r="K81" t="n">
         <v>0.471781354233955</v>
       </c>
       <c r="L81" t="n">
-        <v>0.03040033842292937</v>
+        <v>0.04286987526989734</v>
       </c>
       <c r="M81" t="n">
         <v>0.471781354233955</v>
       </c>
       <c r="N81" t="n">
-        <v>0.05476595608687403</v>
+        <v>0.04834252463815212</v>
       </c>
       <c r="O81" t="n">
         <v>0.471781354233955</v>
@@ -3296,25 +3296,25 @@
       <c r="A82" s="101" t="n"/>
       <c r="B82" s="101" t="n"/>
       <c r="F82" t="n">
-        <v>0.03498964806792036</v>
+        <v>0.02861391206477025</v>
       </c>
       <c r="G82" t="n">
         <v>0.5012676888735772</v>
       </c>
       <c r="J82" t="n">
-        <v>0.03498964806792036</v>
+        <v>0.02861391206477025</v>
       </c>
       <c r="K82" t="n">
         <v>0.5012676888735772</v>
       </c>
       <c r="L82" t="n">
-        <v>0.03244770616108263</v>
+        <v>0.04469821321861047</v>
       </c>
       <c r="M82" t="n">
         <v>0.5012676888735772</v>
       </c>
       <c r="N82" t="n">
-        <v>0.05708793885678294</v>
+        <v>0.05129983518430262</v>
       </c>
       <c r="O82" t="n">
         <v>0.5012676888735772</v>
@@ -3322,25 +3322,25 @@
     </row>
     <row r="83" ht="15" customHeight="1">
       <c r="F83" t="n">
-        <v>0.03681194938531537</v>
+        <v>0.02944436423580147</v>
       </c>
       <c r="G83" t="n">
         <v>0.5307540235131993</v>
       </c>
       <c r="J83" t="n">
-        <v>0.03681194938531537</v>
+        <v>0.02944436423580147</v>
       </c>
       <c r="K83" t="n">
         <v>0.5307540235131993</v>
       </c>
       <c r="L83" t="n">
-        <v>0.03315683164779888</v>
+        <v>0.04694600120177599</v>
       </c>
       <c r="M83" t="n">
         <v>0.5307540235131993</v>
       </c>
       <c r="N83" t="n">
-        <v>0.05968241268296159</v>
+        <v>0.05287600190487977</v>
       </c>
       <c r="O83" t="n">
         <v>0.5307540235131993</v>
@@ -3348,25 +3348,25 @@
     </row>
     <row r="84" ht="15" customHeight="1">
       <c r="F84" t="n">
-        <v>0.03732498586169993</v>
+        <v>0.03093348099936424</v>
       </c>
       <c r="G84" t="n">
         <v>0.5602403581528216</v>
       </c>
       <c r="J84" t="n">
-        <v>0.03732498586169993</v>
+        <v>0.03093348099936424</v>
       </c>
       <c r="K84" t="n">
         <v>0.5602403581528216</v>
       </c>
       <c r="L84" t="n">
-        <v>0.0346998919021922</v>
+        <v>0.04949334134786452</v>
       </c>
       <c r="M84" t="n">
         <v>0.5602403581528216</v>
       </c>
       <c r="N84" t="n">
-        <v>0.06192282284859832</v>
+        <v>0.05506557328857779</v>
       </c>
       <c r="O84" t="n">
         <v>0.5602403581528216</v>
@@ -3377,25 +3377,25 @@
       <c r="B85" s="57" t="n"/>
       <c r="D85" s="101" t="n"/>
       <c r="F85" t="n">
-        <v>0.03964129040782385</v>
+        <v>0.03173157294286163</v>
       </c>
       <c r="G85" t="n">
         <v>0.5897266927924437</v>
       </c>
       <c r="J85" t="n">
-        <v>0.03964129040782385</v>
+        <v>0.03173157294286163</v>
       </c>
       <c r="K85" t="n">
         <v>0.5897266927924437</v>
       </c>
       <c r="L85" t="n">
-        <v>0.0362299241794433</v>
+        <v>0.05090450121979918</v>
       </c>
       <c r="M85" t="n">
         <v>0.5897266927924437</v>
       </c>
       <c r="N85" t="n">
-        <v>0.06604190852677688</v>
+        <v>0.0578432294951424</v>
       </c>
       <c r="O85" t="n">
         <v>0.5897266927924437</v>
@@ -3406,25 +3406,25 @@
       <c r="B86" s="57" t="n"/>
       <c r="D86" s="101" t="n"/>
       <c r="F86" t="n">
-        <v>0.04145368533153891</v>
+        <v>0.03359448028720706</v>
       </c>
       <c r="G86" t="n">
         <v>0.619213027432066</v>
       </c>
       <c r="J86" t="n">
-        <v>0.04145368533153891</v>
+        <v>0.03359448028720706</v>
       </c>
       <c r="K86" t="n">
         <v>0.619213027432066</v>
       </c>
       <c r="L86" t="n">
-        <v>0.03744795300105261</v>
+        <v>0.0537395668203936</v>
       </c>
       <c r="M86" t="n">
         <v>0.619213027432066</v>
       </c>
       <c r="N86" t="n">
-        <v>0.06944710831372644</v>
+        <v>0.05934881163727173</v>
       </c>
       <c r="O86" t="n">
         <v>0.619213027432066</v>
@@ -3432,25 +3432,25 @@
     </row>
     <row r="87" ht="15" customHeight="1">
       <c r="F87" t="n">
-        <v>0.0433735451483552</v>
+        <v>0.03497097813997448</v>
       </c>
       <c r="G87" t="n">
         <v>0.6486993620716881</v>
       </c>
       <c r="J87" t="n">
-        <v>0.0433735451483552</v>
+        <v>0.03497097813997448</v>
       </c>
       <c r="K87" t="n">
         <v>0.6486993620716881</v>
       </c>
       <c r="L87" t="n">
-        <v>0.03927241038957427</v>
+        <v>0.05545574208845537</v>
       </c>
       <c r="M87" t="n">
         <v>0.6486993620716881</v>
       </c>
       <c r="N87" t="n">
-        <v>0.0715801648781894</v>
+        <v>0.06214921049837083</v>
       </c>
       <c r="O87" t="n">
         <v>0.6486993620716881</v>
@@ -3461,25 +3461,25 @@
       <c r="C88" s="59" t="n"/>
       <c r="D88" s="59" t="n"/>
       <c r="F88" t="n">
-        <v>0.04468563148715978</v>
+        <v>0.03587332232029437</v>
       </c>
       <c r="G88" t="n">
         <v>0.6781856967113103</v>
       </c>
       <c r="J88" t="n">
-        <v>0.04468563148715978</v>
+        <v>0.03587332232029437</v>
       </c>
       <c r="K88" t="n">
         <v>0.6781856967113103</v>
       </c>
       <c r="L88" t="n">
-        <v>0.04200123467411719</v>
+        <v>0.0582560895809286</v>
       </c>
       <c r="M88" t="n">
         <v>0.6781856967113103</v>
       </c>
       <c r="N88" t="n">
-        <v>0.07441620728410238</v>
+        <v>0.06666611945342726</v>
       </c>
       <c r="O88" t="n">
         <v>0.6781856967113103</v>
@@ -3489,25 +3489,25 @@
       <c r="A89" s="57" t="n"/>
       <c r="B89" s="57" t="n"/>
       <c r="F89" t="n">
-        <v>0.04685612388054597</v>
+        <v>0.036616089206357</v>
       </c>
       <c r="G89" t="n">
         <v>0.7076720313509325</v>
       </c>
       <c r="J89" t="n">
-        <v>0.04685612388054597</v>
+        <v>0.036616089206357</v>
       </c>
       <c r="K89" t="n">
         <v>0.7076720313509325</v>
       </c>
       <c r="L89" t="n">
-        <v>0.04325433833546597</v>
+        <v>0.05990447980589042</v>
       </c>
       <c r="M89" t="n">
         <v>0.7076720313509325</v>
       </c>
       <c r="N89" t="n">
-        <v>0.07724589005735932</v>
+        <v>0.06893692585794287</v>
       </c>
       <c r="O89" t="n">
         <v>0.7076720313509325</v>
@@ -3515,25 +3515,25 @@
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.04815404193625136</v>
+        <v>0.03825111055190502</v>
       </c>
       <c r="G90" t="n">
         <v>0.7371583659905547</v>
       </c>
       <c r="J90" t="n">
-        <v>0.04815404193625136</v>
+        <v>0.03825111055190502</v>
       </c>
       <c r="K90" t="n">
         <v>0.7371583659905547</v>
       </c>
       <c r="L90" t="n">
-        <v>0.04577586657187108</v>
+        <v>0.06344088087149545</v>
       </c>
       <c r="M90" t="n">
         <v>0.7371583659905547</v>
       </c>
       <c r="N90" t="n">
-        <v>0.08012954270685584</v>
+        <v>0.07009319905469541</v>
       </c>
       <c r="O90" t="n">
         <v>0.7371583659905547</v>
@@ -3541,25 +3541,25 @@
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.05092463187290398</v>
+        <v>0.03977171022523417</v>
       </c>
       <c r="G91" t="n">
         <v>0.7666447006301769</v>
       </c>
       <c r="J91" t="n">
-        <v>0.05092463187290398</v>
+        <v>0.03977171022523417</v>
       </c>
       <c r="K91" t="n">
         <v>0.7666447006301769</v>
       </c>
       <c r="L91" t="n">
-        <v>0.04599662707994909</v>
+        <v>0.06626634388206612</v>
       </c>
       <c r="M91" t="n">
         <v>0.7666447006301769</v>
       </c>
       <c r="N91" t="n">
-        <v>0.08451392875083508</v>
+        <v>0.07275236409739552</v>
       </c>
       <c r="O91" t="n">
         <v>0.7666447006301769</v>
@@ -3567,25 +3567,25 @@
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.05316799628932006</v>
+        <v>0.04115743311964768</v>
       </c>
       <c r="G92" t="n">
         <v>0.7961310352697991</v>
       </c>
       <c r="J92" t="n">
-        <v>0.05316799628932006</v>
+        <v>0.04115743311964768</v>
       </c>
       <c r="K92" t="n">
         <v>0.7961310352697991</v>
       </c>
       <c r="L92" t="n">
-        <v>0.04808321336014965</v>
+        <v>0.06680664282177276</v>
       </c>
       <c r="M92" t="n">
         <v>0.7961310352697991</v>
       </c>
       <c r="N92" t="n">
-        <v>0.08626383860717661</v>
+        <v>0.07479391369881698</v>
       </c>
       <c r="O92" t="n">
         <v>0.7961310352697991</v>
@@ -3593,25 +3593,25 @@
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.05575540742430594</v>
+        <v>0.04256464780419837</v>
       </c>
       <c r="G93" t="n">
         <v>0.8256173699094213</v>
       </c>
       <c r="J93" t="n">
-        <v>0.05575540742430594</v>
+        <v>0.04256464780419837</v>
       </c>
       <c r="K93" t="n">
         <v>0.8256173699094213</v>
       </c>
       <c r="L93" t="n">
-        <v>0.04960911558129179</v>
+        <v>0.06963781353264983</v>
       </c>
       <c r="M93" t="n">
         <v>0.8256173699094213</v>
       </c>
       <c r="N93" t="n">
-        <v>0.08797577056362596</v>
+        <v>0.07830068891683696</v>
       </c>
       <c r="O93" t="n">
         <v>0.8256173699094213</v>
@@ -3619,25 +3619,25 @@
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.05687189595334493</v>
+        <v>0.0440149873388</v>
       </c>
       <c r="G94" t="n">
         <v>0.8551037045490435</v>
       </c>
       <c r="J94" t="n">
-        <v>0.05687189595334493</v>
+        <v>0.0440149873388</v>
       </c>
       <c r="K94" t="n">
         <v>0.8551037045490435</v>
       </c>
       <c r="L94" t="n">
-        <v>0.05255027732340443</v>
+        <v>0.07316675613945653</v>
       </c>
       <c r="M94" t="n">
         <v>0.8551037045490435</v>
       </c>
       <c r="N94" t="n">
-        <v>0.0934211760257664</v>
+        <v>0.08026121132134996</v>
       </c>
       <c r="O94" t="n">
         <v>0.8551037045490435</v>
@@ -3645,25 +3645,25 @@
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.05776432103930296</v>
+        <v>0.04418917152918623</v>
       </c>
       <c r="G95" t="n">
         <v>0.8845900391886656</v>
       </c>
       <c r="J95" t="n">
-        <v>0.05776432103930296</v>
+        <v>0.04418917152918623</v>
       </c>
       <c r="K95" t="n">
         <v>0.8845900391886656</v>
       </c>
       <c r="L95" t="n">
-        <v>0.05431235249985935</v>
+        <v>0.07338258198261384</v>
       </c>
       <c r="M95" t="n">
         <v>0.8845900391886656</v>
       </c>
       <c r="N95" t="n">
-        <v>0.09592810014846656</v>
+        <v>0.08289143135225009</v>
       </c>
       <c r="O95" t="n">
         <v>0.8845900391886656</v>
@@ -3671,25 +3671,25 @@
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.06031706652230519</v>
+        <v>0.04593939902548892</v>
       </c>
       <c r="G96" t="n">
         <v>0.9140763738282879</v>
       </c>
       <c r="J96" t="n">
-        <v>0.06031706652230519</v>
+        <v>0.04593939902548892</v>
       </c>
       <c r="K96" t="n">
         <v>0.9140763738282879</v>
       </c>
       <c r="L96" t="n">
-        <v>0.05492275629122589</v>
+        <v>0.07564368583615344</v>
       </c>
       <c r="M96" t="n">
         <v>0.9140763738282879</v>
       </c>
       <c r="N96" t="n">
-        <v>0.09596279134193328</v>
+        <v>0.08373868748483736</v>
       </c>
       <c r="O96" t="n">
         <v>0.9140763738282879</v>
@@ -3697,25 +3697,25 @@
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.06275469234816551</v>
+        <v>0.04772828013997386</v>
       </c>
       <c r="G97" t="n">
         <v>0.94356270846791</v>
       </c>
       <c r="J97" t="n">
-        <v>0.06275469234816551</v>
+        <v>0.04772828013997386</v>
       </c>
       <c r="K97" t="n">
         <v>0.94356270846791</v>
       </c>
       <c r="L97" t="n">
-        <v>0.05700184297505588</v>
+        <v>0.07718254894624793</v>
       </c>
       <c r="M97" t="n">
         <v>0.94356270846791</v>
       </c>
       <c r="N97" t="n">
-        <v>0.1007197112392522</v>
+        <v>0.08848652673571519</v>
       </c>
       <c r="O97" t="n">
         <v>0.94356270846791</v>
@@ -3723,25 +3723,25 @@
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.06314837561089071</v>
+        <v>0.04915836898748135</v>
       </c>
       <c r="G98" t="n">
         <v>0.9730490431075322</v>
       </c>
       <c r="J98" t="n">
-        <v>0.06314837561089071</v>
+        <v>0.04915836898748135</v>
       </c>
       <c r="K98" t="n">
         <v>0.9730490431075322</v>
       </c>
       <c r="L98" t="n">
-        <v>0.05877869091998764</v>
+        <v>0.07917158738594539</v>
       </c>
       <c r="M98" t="n">
         <v>0.9730490431075322</v>
       </c>
       <c r="N98" t="n">
-        <v>0.1005148513152494</v>
+        <v>0.08774033832741421</v>
       </c>
       <c r="O98" t="n">
         <v>0.9730490431075322</v>
@@ -3749,25 +3749,25 @@
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.06529139843491751</v>
+        <v>0.04927773325893894</v>
       </c>
       <c r="G99" t="n">
         <v>1.002535377747154</v>
       </c>
       <c r="J99" t="n">
-        <v>0.06529139843491751</v>
+        <v>0.04927773325893894</v>
       </c>
       <c r="K99" t="n">
         <v>1.002535377747154</v>
       </c>
       <c r="L99" t="n">
-        <v>0.0596481387997321</v>
+        <v>0.08112002101771427</v>
       </c>
       <c r="M99" t="n">
         <v>1.002535377747154</v>
       </c>
       <c r="N99" t="n">
-        <v>0.1053459515973805</v>
+        <v>0.08977266656302206</v>
       </c>
       <c r="O99" t="n">
         <v>1.002535377747154</v>
@@ -3775,25 +3775,25 @@
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.06596831853243246</v>
+        <v>0.0498941891606519</v>
       </c>
       <c r="G100" t="n">
         <v>1.032021712386777</v>
       </c>
       <c r="J100" t="n">
-        <v>0.06596831853243246</v>
+        <v>0.0498941891606519</v>
       </c>
       <c r="K100" t="n">
         <v>1.032021712386777</v>
       </c>
       <c r="L100" t="n">
-        <v>0.0607650800680998</v>
+        <v>0.08431882072175925</v>
       </c>
       <c r="M100" t="n">
         <v>1.032021712386777</v>
       </c>
       <c r="N100" t="n">
-        <v>0.1045138571704145</v>
+        <v>0.09218209009924516</v>
       </c>
       <c r="O100" t="n">
         <v>1.032021712386777</v>
@@ -3801,25 +3801,25 @@
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.06663562922278785</v>
+        <v>0.05037332652231971</v>
       </c>
       <c r="G101" t="n">
         <v>1.061508047026399</v>
       </c>
       <c r="J101" t="n">
-        <v>0.06663562922278785</v>
+        <v>0.05037332652231971</v>
       </c>
       <c r="K101" t="n">
         <v>1.061508047026399</v>
       </c>
       <c r="L101" t="n">
-        <v>0.06156941925499704</v>
+        <v>0.08401831886249271</v>
       </c>
       <c r="M101" t="n">
         <v>1.061508047026399</v>
       </c>
       <c r="N101" t="n">
-        <v>0.1094475436272601</v>
+        <v>0.09348083497395485</v>
       </c>
       <c r="O101" t="n">
         <v>1.061508047026399</v>
@@ -3827,25 +3827,25 @@
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.06815591676974737</v>
+        <v>0.05099908235898545</v>
       </c>
       <c r="G102" t="n">
         <v>1.090994381666021</v>
       </c>
       <c r="J102" t="n">
-        <v>0.06815591676974737</v>
+        <v>0.05099908235898545</v>
       </c>
       <c r="K102" t="n">
         <v>1.090994381666021</v>
       </c>
       <c r="L102" t="n">
-        <v>0.06166232027387222</v>
+        <v>0.08710520041333912</v>
       </c>
       <c r="M102" t="n">
         <v>1.090994381666021</v>
       </c>
       <c r="N102" t="n">
-        <v>0.1108014605219605</v>
+        <v>0.09685971414770664</v>
       </c>
       <c r="O102" t="n">
         <v>1.090994381666021</v>
@@ -3853,25 +3853,25 @@
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.06923902583130044</v>
+        <v>0.05239707065730542</v>
       </c>
       <c r="G103" t="n">
         <v>1.120480716305643</v>
       </c>
       <c r="J103" t="n">
-        <v>0.06923902583130044</v>
+        <v>0.05239707065730542</v>
       </c>
       <c r="K103" t="n">
         <v>1.120480716305643</v>
       </c>
       <c r="L103" t="n">
-        <v>0.06351403063689665</v>
+        <v>0.08748518157210784</v>
       </c>
       <c r="M103" t="n">
         <v>1.120480716305643</v>
       </c>
       <c r="N103" t="n">
-        <v>0.1120218957481462</v>
+        <v>0.09646099389020299</v>
       </c>
       <c r="O103" t="n">
         <v>1.120480716305643</v>
@@ -3879,25 +3879,25 @@
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.06936658190960868</v>
+        <v>0.05260793095354258</v>
       </c>
       <c r="G104" t="n">
         <v>1.149967050945265</v>
       </c>
       <c r="J104" t="n">
-        <v>0.06936658190960868</v>
+        <v>0.05260793095354258</v>
       </c>
       <c r="K104" t="n">
         <v>1.149967050945265</v>
       </c>
       <c r="L104" t="n">
-        <v>0.06477278343897826</v>
+        <v>0.08719168135689966</v>
       </c>
       <c r="M104" t="n">
         <v>1.149967050945265</v>
       </c>
       <c r="N104" t="n">
-        <v>0.1130250787348712</v>
+        <v>0.09772732501871202</v>
       </c>
       <c r="O104" t="n">
         <v>1.149967050945265</v>
@@ -3905,25 +3905,25 @@
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.06898091135890634</v>
+        <v>0.0533926352249976</v>
       </c>
       <c r="G105" t="n">
         <v>1.179453385584887</v>
       </c>
       <c r="J105" t="n">
-        <v>0.06898091135890634</v>
+        <v>0.0533926352249976</v>
       </c>
       <c r="K105" t="n">
         <v>1.179453385584887</v>
       </c>
       <c r="L105" t="n">
-        <v>0.06509423811607225</v>
+        <v>0.08889332636538225</v>
       </c>
       <c r="M105" t="n">
         <v>1.179453385584887</v>
       </c>
       <c r="N105" t="n">
-        <v>0.1106240681501697</v>
+        <v>0.09757097493363298</v>
       </c>
       <c r="O105" t="n">
         <v>1.179453385584887</v>
@@ -3931,25 +3931,25 @@
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.07000451356793243</v>
+        <v>0.05298775211853575</v>
       </c>
       <c r="G106" t="n">
         <v>1.20893972022451</v>
       </c>
       <c r="J106" t="n">
-        <v>0.07000451356793243</v>
+        <v>0.05298775211853575</v>
       </c>
       <c r="K106" t="n">
         <v>1.20893972022451</v>
       </c>
       <c r="L106" t="n">
-        <v>0.06439880386211236</v>
+        <v>0.08856371886822133</v>
       </c>
       <c r="M106" t="n">
         <v>1.20893972022451</v>
       </c>
       <c r="N106" t="n">
-        <v>0.1119173065498652</v>
+        <v>0.09998710176383609</v>
       </c>
       <c r="O106" t="n">
         <v>1.20893972022451</v>
@@ -3957,25 +3957,25 @@
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.07010903275138976</v>
+        <v>0.05353366967699977</v>
       </c>
       <c r="G107" t="n">
         <v>1.238426054864132</v>
       </c>
       <c r="J107" t="n">
-        <v>0.07010903275138976</v>
+        <v>0.05353366967699977</v>
       </c>
       <c r="K107" t="n">
         <v>1.238426054864132</v>
       </c>
       <c r="L107" t="n">
-        <v>0.06549361442538006</v>
+        <v>0.09129024275121328</v>
       </c>
       <c r="M107" t="n">
         <v>1.238426054864132</v>
       </c>
       <c r="N107" t="n">
-        <v>0.1157721291604811</v>
+        <v>0.09856982856097656</v>
       </c>
       <c r="O107" t="n">
         <v>1.238426054864132</v>
@@ -3983,25 +3983,25 @@
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.07161290383284596</v>
+        <v>0.0549833648039763</v>
       </c>
       <c r="G108" t="n">
         <v>1.267912389503754</v>
       </c>
       <c r="J108" t="n">
-        <v>0.07161290383284596</v>
+        <v>0.0549833648039763</v>
       </c>
       <c r="K108" t="n">
         <v>1.267912389503754</v>
       </c>
       <c r="L108" t="n">
-        <v>0.06413089757011511</v>
+        <v>0.09094930211786074</v>
       </c>
       <c r="M108" t="n">
         <v>1.267912389503754</v>
       </c>
       <c r="N108" t="n">
-        <v>0.1137006459480613</v>
+        <v>0.1013541571037203</v>
       </c>
       <c r="O108" t="n">
         <v>1.267912389503754</v>
@@ -4009,25 +4009,25 @@
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.07084039537658919</v>
+        <v>0.05609663428348297</v>
       </c>
       <c r="G109" t="n">
         <v>1.297398724143376</v>
       </c>
       <c r="J109" t="n">
-        <v>0.07084039537658919</v>
+        <v>0.05609663428348297</v>
       </c>
       <c r="K109" t="n">
         <v>1.297398724143376</v>
       </c>
       <c r="L109" t="n">
-        <v>0.06440843327450957</v>
+        <v>0.09201966189303058</v>
       </c>
       <c r="M109" t="n">
         <v>1.297398724143376</v>
       </c>
       <c r="N109" t="n">
-        <v>0.1134374630811469</v>
+        <v>0.100841668327954</v>
       </c>
       <c r="O109" t="n">
         <v>1.297398724143376</v>
@@ -4035,25 +4035,25 @@
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.07002832206686851</v>
+        <v>0.05472981167737343</v>
       </c>
       <c r="G110" t="n">
         <v>1.326885058782999</v>
       </c>
       <c r="J110" t="n">
-        <v>0.07002832206686851</v>
+        <v>0.05472981167737343</v>
       </c>
       <c r="K110" t="n">
         <v>1.326885058782999</v>
       </c>
       <c r="L110" t="n">
-        <v>0.06589502621916501</v>
+        <v>0.09032450566732032</v>
       </c>
       <c r="M110" t="n">
         <v>1.326885058782999</v>
       </c>
       <c r="N110" t="n">
-        <v>0.1176786624982012</v>
+        <v>0.1009183616709084</v>
       </c>
       <c r="O110" t="n">
         <v>1.326885058782999</v>
@@ -4061,25 +4061,25 @@
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.07063212885000097</v>
+        <v>0.05511576291543067</v>
       </c>
       <c r="G111" t="n">
         <v>1.356371393422621</v>
       </c>
       <c r="J111" t="n">
-        <v>0.07063212885000097</v>
+        <v>0.05511576291543067</v>
       </c>
       <c r="K111" t="n">
         <v>1.356371393422621</v>
       </c>
       <c r="L111" t="n">
-        <v>0.06650224450783729</v>
+        <v>0.09169803124007431</v>
       </c>
       <c r="M111" t="n">
         <v>1.356371393422621</v>
       </c>
       <c r="N111" t="n">
-        <v>0.1159360349867933</v>
+        <v>0.1015354103515677</v>
       </c>
       <c r="O111" t="n">
         <v>1.356371393422621</v>
@@ -4087,25 +4087,25 @@
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.07095735174270193</v>
+        <v>0.05607656382291724</v>
       </c>
       <c r="G112" t="n">
         <v>1.385857728062243</v>
       </c>
       <c r="J112" t="n">
-        <v>0.07095735174270193</v>
+        <v>0.05607656382291724</v>
       </c>
       <c r="K112" t="n">
         <v>1.385857728062243</v>
       </c>
       <c r="L112" t="n">
-        <v>0.06634273995304842</v>
+        <v>0.09074634920343744</v>
       </c>
       <c r="M112" t="n">
         <v>1.385857728062243</v>
       </c>
       <c r="N112" t="n">
-        <v>0.1194264851433355</v>
+        <v>0.1017545334618928</v>
       </c>
       <c r="O112" t="n">
         <v>1.385857728062243</v>
@@ -4113,25 +4113,25 @@
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.07194450247550271</v>
+        <v>0.05738195205005495</v>
       </c>
       <c r="G113" t="n">
         <v>1.415344062701865</v>
       </c>
       <c r="J113" t="n">
-        <v>0.07194450247550271</v>
+        <v>0.05738195205005495</v>
       </c>
       <c r="K113" t="n">
         <v>1.415344062701865</v>
       </c>
       <c r="L113" t="n">
-        <v>0.06598499698052789</v>
+        <v>0.09159284303444469</v>
       </c>
       <c r="M113" t="n">
         <v>1.415344062701865</v>
       </c>
       <c r="N113" t="n">
-        <v>0.1157622947855302</v>
+        <v>0.1028195024517974</v>
       </c>
       <c r="O113" t="n">
         <v>1.415344062701865</v>
@@ -4139,25 +4139,25 @@
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.07306198208892042</v>
+        <v>0.0573855330167726</v>
       </c>
       <c r="G114" t="n">
         <v>1.444830397341487</v>
       </c>
       <c r="J114" t="n">
-        <v>0.07306198208892042</v>
+        <v>0.0573855330167726</v>
       </c>
       <c r="K114" t="n">
         <v>1.444830397341487</v>
       </c>
       <c r="L114" t="n">
-        <v>0.06607936861704632</v>
+        <v>0.09416862193724354</v>
       </c>
       <c r="M114" t="n">
         <v>1.444830397341487</v>
       </c>
       <c r="N114" t="n">
-        <v>0.120588870931458</v>
+        <v>0.1052402781932285</v>
       </c>
       <c r="O114" t="n">
         <v>1.444830397341487</v>
@@ -4165,25 +4165,25 @@
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.07335394681987321</v>
+        <v>0.05709159207517529</v>
       </c>
       <c r="G115" t="n">
         <v>1.474316731981109</v>
       </c>
       <c r="J115" t="n">
-        <v>0.07335394681987321</v>
+        <v>0.05709159207517529</v>
       </c>
       <c r="K115" t="n">
         <v>1.474316731981109</v>
       </c>
       <c r="L115" t="n">
-        <v>0.0661481279874465</v>
+        <v>0.09369851043818658</v>
       </c>
       <c r="M115" t="n">
         <v>1.474316731981109</v>
       </c>
       <c r="N115" t="n">
-        <v>0.1167536276376515</v>
+        <v>0.1040464602131329</v>
       </c>
       <c r="O115" t="n">
         <v>1.474316731981109</v>
@@ -4191,25 +4191,25 @@
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.07311575168239808</v>
+        <v>0.05803562223467507</v>
       </c>
       <c r="G116" t="n">
         <v>1.503803066620732</v>
       </c>
       <c r="J116" t="n">
-        <v>0.07311575168239808</v>
+        <v>0.05803562223467507</v>
       </c>
       <c r="K116" t="n">
         <v>1.503803066620732</v>
       </c>
       <c r="L116" t="n">
-        <v>0.0676773851566508</v>
+        <v>0.09338011580859708</v>
       </c>
       <c r="M116" t="n">
         <v>1.503803066620732</v>
       </c>
       <c r="N116" t="n">
-        <v>0.1195599151549337</v>
+        <v>0.1046139205371335</v>
       </c>
       <c r="O116" t="n">
         <v>1.503803066620732</v>
@@ -4217,25 +4217,25 @@
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.07167042661808967</v>
+        <v>0.05820517557492305</v>
       </c>
       <c r="G117" t="n">
         <v>1.533289401260354</v>
       </c>
       <c r="J117" t="n">
-        <v>0.07167042661808967</v>
+        <v>0.05820517557492305</v>
       </c>
       <c r="K117" t="n">
         <v>1.533289401260354</v>
       </c>
       <c r="L117" t="n">
-        <v>0.06789183857099955</v>
+        <v>0.09442039062596769</v>
       </c>
       <c r="M117" t="n">
         <v>1.533289401260354</v>
       </c>
       <c r="N117" t="n">
-        <v>0.1222889098498755</v>
+        <v>0.1051665660350707</v>
       </c>
       <c r="O117" t="n">
         <v>1.533289401260354</v>
@@ -4243,25 +4243,25 @@
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.07362022589737857</v>
+        <v>0.05851916348118269</v>
       </c>
       <c r="G118" t="n">
         <v>1.562775735899976</v>
       </c>
       <c r="J118" t="n">
-        <v>0.07362022589737857</v>
+        <v>0.05851916348118269</v>
       </c>
       <c r="K118" t="n">
         <v>1.562775735899976</v>
       </c>
       <c r="L118" t="n">
-        <v>0.06778031444655287</v>
+        <v>0.09468461374720165</v>
       </c>
       <c r="M118" t="n">
         <v>1.562775735899976</v>
       </c>
       <c r="N118" t="n">
-        <v>0.1188217417869597</v>
+        <v>0.1059668917636322</v>
       </c>
       <c r="O118" t="n">
         <v>1.562775735899976</v>
@@ -4269,25 +4269,25 @@
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.07431693891902004</v>
+        <v>0.05802431369126022</v>
       </c>
       <c r="G119" t="n">
         <v>1.592262070539598</v>
       </c>
       <c r="J119" t="n">
-        <v>0.07431693891902004</v>
+        <v>0.05802431369126022</v>
       </c>
       <c r="K119" t="n">
         <v>1.592262070539598</v>
       </c>
       <c r="L119" t="n">
-        <v>0.06754750447364659</v>
+        <v>0.09297081049855405</v>
       </c>
       <c r="M119" t="n">
         <v>1.592262070539598</v>
       </c>
       <c r="N119" t="n">
-        <v>0.1202036765635034</v>
+        <v>0.1047945908667257</v>
       </c>
       <c r="O119" t="n">
         <v>1.592262070539598</v>
@@ -4295,25 +4295,25 @@
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.07335803756433257</v>
+        <v>0.05825328988364616</v>
       </c>
       <c r="G120" t="n">
         <v>1.62174840517922</v>
       </c>
       <c r="J120" t="n">
-        <v>0.07335803756433257</v>
+        <v>0.05825328988364616</v>
       </c>
       <c r="K120" t="n">
         <v>1.62174840517922</v>
       </c>
       <c r="L120" t="n">
-        <v>0.06760198076846873</v>
+        <v>0.09408919990920102</v>
       </c>
       <c r="M120" t="n">
         <v>1.62174840517922</v>
       </c>
       <c r="N120" t="n">
-        <v>0.1201357690310951</v>
+        <v>0.10644967654971</v>
       </c>
       <c r="O120" t="n">
         <v>1.62174840517922</v>
@@ -4321,25 +4321,25 @@
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.0745573167402373</v>
+        <v>0.05871062636858793</v>
       </c>
       <c r="G121" t="n">
         <v>1.651234739818843</v>
       </c>
       <c r="J121" t="n">
-        <v>0.0745573167402373</v>
+        <v>0.05871062636858793</v>
       </c>
       <c r="K121" t="n">
         <v>1.651234739818843</v>
       </c>
       <c r="L121" t="n">
-        <v>0.06880719213948018</v>
+        <v>0.096562565838742</v>
       </c>
       <c r="M121" t="n">
         <v>1.651234739818843</v>
       </c>
       <c r="N121" t="n">
-        <v>0.1193617342964082</v>
+        <v>0.1094508978627086</v>
       </c>
       <c r="O121" t="n">
         <v>1.651234739818843</v>
@@ -4347,25 +4347,25 @@
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.07251666133847899</v>
+        <v>0.05880244857328222</v>
       </c>
       <c r="G122" t="n">
         <v>1.680721074458465</v>
       </c>
       <c r="J122" t="n">
-        <v>0.07251666133847899</v>
+        <v>0.05880244857328222</v>
       </c>
       <c r="K122" t="n">
         <v>1.680721074458465</v>
       </c>
       <c r="L122" t="n">
-        <v>0.06906670678295995</v>
+        <v>0.09479558609344828</v>
       </c>
       <c r="M122" t="n">
         <v>1.680721074458465</v>
       </c>
       <c r="N122" t="n">
-        <v>0.1212575679840954</v>
+        <v>0.1089805087840383</v>
       </c>
       <c r="O122" t="n">
         <v>1.680721074458465</v>
@@ -4373,25 +4373,25 @@
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.07515087787960509</v>
+        <v>0.06009412526659253</v>
       </c>
       <c r="G123" t="n">
         <v>1.710207409098087</v>
       </c>
       <c r="J123" t="n">
-        <v>0.07515087787960509</v>
+        <v>0.06009412526659253</v>
       </c>
       <c r="K123" t="n">
         <v>1.710207409098087</v>
       </c>
       <c r="L123" t="n">
-        <v>0.06865784230552155</v>
+        <v>0.09356458517092407</v>
       </c>
       <c r="M123" t="n">
         <v>1.710207409098087</v>
       </c>
       <c r="N123" t="n">
-        <v>0.1223082986554753</v>
+        <v>0.1087403311585055</v>
       </c>
       <c r="O123" t="n">
         <v>1.710207409098087</v>
@@ -4399,25 +4399,25 @@
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.07500783157339534</v>
+        <v>0.06102192182142684</v>
       </c>
       <c r="G124" t="n">
         <v>1.739693743737709</v>
       </c>
       <c r="J124" t="n">
-        <v>0.07500783157339534</v>
+        <v>0.06102192182142684</v>
       </c>
       <c r="K124" t="n">
         <v>1.739693743737709</v>
       </c>
       <c r="L124" t="n">
-        <v>0.06851090158956327</v>
+        <v>0.09424310923886615</v>
       </c>
       <c r="M124" t="n">
         <v>1.739693743737709</v>
       </c>
       <c r="N124" t="n">
-        <v>0.1216682590983883</v>
+        <v>0.1101767740171946</v>
       </c>
       <c r="O124" t="n">
         <v>1.739693743737709</v>
@@ -4425,25 +4425,25 @@
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.07435183157475851</v>
+        <v>0.05905752675337599</v>
       </c>
       <c r="G125" t="n">
         <v>1.769180078377331</v>
       </c>
       <c r="J125" t="n">
-        <v>0.07435183157475851</v>
+        <v>0.05905752675337599</v>
       </c>
       <c r="K125" t="n">
         <v>1.769180078377331</v>
       </c>
       <c r="L125" t="n">
-        <v>0.06945447337324406</v>
+        <v>0.09380537631692215</v>
       </c>
       <c r="M125" t="n">
         <v>1.769180078377331</v>
       </c>
       <c r="N125" t="n">
-        <v>0.1229391004660203</v>
+        <v>0.1108930453638075</v>
       </c>
       <c r="O125" t="n">
         <v>1.769180078377331</v>
@@ -4451,25 +4451,25 @@
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.07562242930046846</v>
+        <v>0.06133517057619474</v>
       </c>
       <c r="G126" t="n">
         <v>1.798666413016953</v>
       </c>
       <c r="J126" t="n">
-        <v>0.07562242930046846</v>
+        <v>0.06133517057619474</v>
       </c>
       <c r="K126" t="n">
         <v>1.798666413016953</v>
       </c>
       <c r="L126" t="n">
-        <v>0.0691235886411512</v>
+        <v>0.09616806116576117</v>
       </c>
       <c r="M126" t="n">
         <v>1.798666413016953</v>
       </c>
       <c r="N126" t="n">
-        <v>0.1243763400069709</v>
+        <v>0.1082497844029045</v>
       </c>
       <c r="O126" t="n">
         <v>1.798666413016953</v>
@@ -4477,25 +4477,25 @@
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.07527041147758323</v>
+        <v>0.06163366033135956</v>
       </c>
       <c r="G127" t="n">
         <v>1.828152747656576</v>
       </c>
       <c r="J127" t="n">
-        <v>0.07527041147758323</v>
+        <v>0.06163366033135956</v>
       </c>
       <c r="K127" t="n">
         <v>1.828152747656576</v>
       </c>
       <c r="L127" t="n">
-        <v>0.06842387281918121</v>
+        <v>0.09546978560331576</v>
       </c>
       <c r="M127" t="n">
         <v>1.828152747656576</v>
       </c>
       <c r="N127" t="n">
-        <v>0.1251978842006957</v>
+        <v>0.1090093823130727</v>
       </c>
       <c r="O127" t="n">
         <v>1.828152747656576</v>
@@ -4503,25 +4503,25 @@
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.07581045884583347</v>
+        <v>0.05989028897424881</v>
       </c>
       <c r="G128" t="n">
         <v>1.857639082296198</v>
       </c>
       <c r="J128" t="n">
-        <v>0.07581045884583347</v>
+        <v>0.05989028897424881</v>
       </c>
       <c r="K128" t="n">
         <v>1.857639082296198</v>
       </c>
       <c r="L128" t="n">
-        <v>0.06844299059082626</v>
+        <v>0.09422500365838675</v>
       </c>
       <c r="M128" t="n">
         <v>1.857639082296198</v>
       </c>
       <c r="N128" t="n">
-        <v>0.1219152742078741</v>
+        <v>0.1107446154693738</v>
       </c>
       <c r="O128" t="n">
         <v>1.857639082296198</v>
@@ -4529,25 +4529,25 @@
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.07574797497453976</v>
+        <v>0.06123817371935744</v>
       </c>
       <c r="G129" t="n">
         <v>1.88712541693582</v>
       </c>
       <c r="J129" t="n">
-        <v>0.07574797497453976</v>
+        <v>0.06123817371935744</v>
       </c>
       <c r="K129" t="n">
         <v>1.88712541693582</v>
       </c>
       <c r="L129" t="n">
-        <v>0.06952335454046062</v>
+        <v>0.09473291178305647</v>
       </c>
       <c r="M129" t="n">
         <v>1.88712541693582</v>
       </c>
       <c r="N129" t="n">
-        <v>0.1230691977435656</v>
+        <v>0.1117921497588423</v>
       </c>
       <c r="O129" t="n">
         <v>1.88712541693582</v>
@@ -4555,25 +4555,25 @@
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.07590032446474863</v>
+        <v>0.06063652523524595</v>
       </c>
       <c r="G130" t="n">
         <v>1.916611751575442</v>
       </c>
       <c r="J130" t="n">
-        <v>0.07590032446474863</v>
+        <v>0.06063652523524595</v>
       </c>
       <c r="K130" t="n">
         <v>1.916611751575442</v>
       </c>
       <c r="L130" t="n">
-        <v>0.06766044986318757</v>
+        <v>0.09526624847232248</v>
       </c>
       <c r="M130" t="n">
         <v>1.916611751575442</v>
       </c>
       <c r="N130" t="n">
-        <v>0.1243729607148917</v>
+        <v>0.1110903999183596</v>
       </c>
       <c r="O130" t="n">
         <v>1.916611751575442</v>
@@ -4581,25 +4581,25 @@
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.07377325885658614</v>
+        <v>0.06027325885658615</v>
       </c>
       <c r="G131" t="n">
         <v>1.946098086215064</v>
       </c>
       <c r="J131" t="n">
-        <v>0.07377325885658614</v>
+        <v>0.06027325885658615</v>
       </c>
       <c r="K131" t="n">
         <v>1.946098086215064</v>
       </c>
       <c r="L131" t="n">
-        <v>0.06815988828487921</v>
+        <v>0.09515988828487922</v>
       </c>
       <c r="M131" t="n">
         <v>1.946098086215064</v>
       </c>
       <c r="N131" t="n">
-        <v>0.1225465177131723</v>
+        <v>0.1090465177131723</v>
       </c>
       <c r="O131" t="n">
         <v>1.946098086215064</v>
@@ -4607,25 +4607,25 @@
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.07361095365945022</v>
+        <v>0.06155707643269497</v>
       </c>
       <c r="G132" t="n">
         <v>1.975584420854687</v>
       </c>
       <c r="J132" t="n">
-        <v>0.07361095365945022</v>
+        <v>0.06155707643269497</v>
       </c>
       <c r="K132" t="n">
         <v>1.975584420854687</v>
       </c>
       <c r="L132" t="n">
-        <v>0.06918909241165995</v>
+        <v>0.09781482570689741</v>
       </c>
       <c r="M132" t="n">
         <v>1.975584420854687</v>
       </c>
       <c r="N132" t="n">
-        <v>0.1242988949676707</v>
+        <v>0.1101042362629787</v>
       </c>
       <c r="O132" t="n">
         <v>1.975584420854687</v>
@@ -4633,25 +4633,25 @@
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.07345281479656932</v>
+        <v>0.06001187161834989</v>
       </c>
       <c r="G133" t="n">
         <v>2.005070755494309</v>
       </c>
       <c r="J133" t="n">
-        <v>0.07345281479656932</v>
+        <v>0.06001187161834989</v>
       </c>
       <c r="K133" t="n">
         <v>2.005070755494309</v>
       </c>
       <c r="L133" t="n">
-        <v>0.06824049807699398</v>
+        <v>0.09615974791704672</v>
       </c>
       <c r="M133" t="n">
         <v>2.005070755494309</v>
       </c>
       <c r="N133" t="n">
-        <v>0.1216836768420233</v>
+        <v>0.1117462892875475</v>
       </c>
       <c r="O133" t="n">
         <v>2.005070755494309</v>
@@ -4659,25 +4659,25 @@
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.07303800739988731</v>
+        <v>0.06088548110297431</v>
       </c>
       <c r="G134" t="n">
         <v>2.034557090133931</v>
       </c>
       <c r="J134" t="n">
-        <v>0.07303800739988731</v>
+        <v>0.06088548110297431</v>
       </c>
       <c r="K134" t="n">
         <v>2.034557090133931</v>
       </c>
       <c r="L134" t="n">
-        <v>0.06885162814966636</v>
+        <v>0.09589902743460792</v>
       </c>
       <c r="M134" t="n">
         <v>2.034557090133931</v>
       </c>
       <c r="N134" t="n">
-        <v>0.1239026768480174</v>
+        <v>0.1096239382524925</v>
       </c>
       <c r="O134" t="n">
         <v>2.034557090133931</v>
@@ -4685,25 +4685,25 @@
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.07433585941557565</v>
+        <v>0.06145357647537137</v>
       </c>
       <c r="G135" t="n">
         <v>2.064043424773553</v>
       </c>
       <c r="J135" t="n">
-        <v>0.07433585941557565</v>
+        <v>0.06145357647537137</v>
       </c>
       <c r="K135" t="n">
         <v>2.064043424773553</v>
       </c>
       <c r="L135" t="n">
-        <v>0.067977369062379</v>
+        <v>0.09726002591772448</v>
       </c>
       <c r="M135" t="n">
         <v>2.064043424773553</v>
       </c>
       <c r="N135" t="n">
-        <v>0.1226414492905822</v>
+        <v>0.1089838455017763</v>
       </c>
       <c r="O135" t="n">
         <v>2.064043424773553</v>
@@ -4711,25 +4711,25 @@
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.07328288331827615</v>
+        <v>0.06196931407866946</v>
       </c>
       <c r="G136" t="n">
         <v>2.093529759413175</v>
       </c>
       <c r="J136" t="n">
-        <v>0.07328288331827615</v>
+        <v>0.06196931407866946</v>
       </c>
       <c r="K136" t="n">
         <v>2.093529759413175</v>
       </c>
       <c r="L136" t="n">
-        <v>0.06992149873876174</v>
+        <v>0.09518052569353104</v>
       </c>
       <c r="M136" t="n">
         <v>2.093529759413175</v>
       </c>
       <c r="N136" t="n">
-        <v>0.1226776141874106</v>
+        <v>0.1076937276557641</v>
       </c>
       <c r="O136" t="n">
         <v>2.093529759413175</v>
@@ -4737,25 +4737,25 @@
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.07465710198988472</v>
+        <v>0.06025869961276546</v>
       </c>
       <c r="G137" t="n">
         <v>2.123016094052797</v>
       </c>
       <c r="J137" t="n">
-        <v>0.07465710198988472</v>
+        <v>0.06025869961276546</v>
       </c>
       <c r="K137" t="n">
         <v>2.123016094052797</v>
       </c>
       <c r="L137" t="n">
-        <v>0.06756646651863814</v>
+        <v>0.09688665433861306</v>
       </c>
       <c r="M137" t="n">
         <v>2.123016094052797</v>
       </c>
       <c r="N137" t="n">
-        <v>0.1232760685639804</v>
+        <v>0.1088400694344309</v>
       </c>
       <c r="O137" t="n">
         <v>2.123016094052797</v>
@@ -4763,25 +4763,25 @@
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.0739472920269884</v>
+        <v>0.05985190556327078</v>
       </c>
       <c r="G138" t="n">
         <v>2.15250242869242</v>
       </c>
       <c r="J138" t="n">
-        <v>0.0739472920269884</v>
+        <v>0.05985190556327078</v>
       </c>
       <c r="K138" t="n">
         <v>2.15250242869242</v>
       </c>
       <c r="L138" t="n">
-        <v>0.06917652537937459</v>
+        <v>0.0956172155831585</v>
       </c>
       <c r="M138" t="n">
         <v>2.15250242869242</v>
       </c>
       <c r="N138" t="n">
-        <v>0.1214675970755613</v>
+        <v>0.1104831181014886</v>
       </c>
       <c r="O138" t="n">
         <v>2.15250242869242</v>
@@ -4789,25 +4789,25 @@
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.07349048441364975</v>
+        <v>0.0618068063213527</v>
       </c>
       <c r="G139" t="n">
         <v>2.181988763332042</v>
       </c>
       <c r="J139" t="n">
-        <v>0.07349048441364975</v>
+        <v>0.0618068063213527</v>
       </c>
       <c r="K139" t="n">
         <v>2.181988763332042</v>
       </c>
       <c r="L139" t="n">
-        <v>0.06767821533031423</v>
+        <v>0.09659121290873732</v>
       </c>
       <c r="M139" t="n">
         <v>2.181988763332042</v>
       </c>
       <c r="N139" t="n">
-        <v>0.1235675716285205</v>
+        <v>0.109261851683493</v>
       </c>
       <c r="O139" t="n">
         <v>2.181988763332042</v>
@@ -4815,25 +4815,25 @@
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.07424315170639931</v>
+        <v>0.05956413107779496</v>
       </c>
       <c r="G140" t="n">
         <v>2.211475097971664</v>
       </c>
       <c r="J140" t="n">
-        <v>0.07424315170639931</v>
+        <v>0.05956413107779496</v>
       </c>
       <c r="K140" t="n">
         <v>2.211475097971664</v>
       </c>
       <c r="L140" t="n">
-        <v>0.06804193994147649</v>
+        <v>0.09443671688144384</v>
       </c>
       <c r="M140" t="n">
         <v>2.211475097971664</v>
       </c>
       <c r="N140" t="n">
-        <v>0.1202447783955521</v>
+        <v>0.1068046575516826</v>
       </c>
       <c r="O140" t="n">
         <v>2.211475097971664</v>
@@ -4841,25 +4841,25 @@
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.07388662559519577</v>
+        <v>0.06136616399437057</v>
       </c>
       <c r="G141" t="n">
         <v>2.240961432611286</v>
       </c>
       <c r="J141" t="n">
-        <v>0.07388662559519577</v>
+        <v>0.06136616399437057</v>
       </c>
       <c r="K141" t="n">
         <v>2.240961432611286</v>
       </c>
       <c r="L141" t="n">
-        <v>0.06866430627950786</v>
+        <v>0.09673960481515478</v>
       </c>
       <c r="M141" t="n">
         <v>2.240961432611286</v>
       </c>
       <c r="N141" t="n">
-        <v>0.1202917620050158</v>
+        <v>0.1067741395861418</v>
       </c>
       <c r="O141" t="n">
         <v>2.240961432611286</v>
@@ -4867,25 +4867,25 @@
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.07431187952773941</v>
+        <v>0.06148661057362543</v>
       </c>
       <c r="G142" t="n">
         <v>2.270447767250908</v>
       </c>
       <c r="J142" t="n">
-        <v>0.07431187952773941</v>
+        <v>0.06148661057362543</v>
       </c>
       <c r="K142" t="n">
         <v>2.270447767250908</v>
       </c>
       <c r="L142" t="n">
-        <v>0.06687807693423969</v>
+        <v>0.09575615432788141</v>
       </c>
       <c r="M142" t="n">
         <v>2.270447767250908</v>
       </c>
       <c r="N142" t="n">
-        <v>0.1203861976924918</v>
+        <v>0.1083785721875959</v>
       </c>
       <c r="O142" t="n">
         <v>2.270447767250908</v>
@@ -4893,25 +4893,25 @@
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.07490778527537213</v>
+        <v>0.06166371234616073</v>
       </c>
       <c r="G143" t="n">
         <v>2.299934101890531</v>
       </c>
       <c r="J143" t="n">
-        <v>0.07490778527537213</v>
+        <v>0.06166371234616073</v>
       </c>
       <c r="K143" t="n">
         <v>2.299934101890531</v>
       </c>
       <c r="L143" t="n">
-        <v>0.06814071248414436</v>
+        <v>0.09531637470986255</v>
       </c>
       <c r="M143" t="n">
         <v>2.299934101890531</v>
       </c>
       <c r="N143" t="n">
-        <v>0.1228151371711748</v>
+        <v>0.1061362184237623</v>
       </c>
       <c r="O143" t="n">
         <v>2.299934101890531</v>
@@ -4919,25 +4919,25 @@
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.07294456311024536</v>
+        <v>0.05958737551428363</v>
       </c>
       <c r="G144" t="n">
         <v>2.329420436530153</v>
       </c>
       <c r="J144" t="n">
-        <v>0.07294456311024536</v>
+        <v>0.05958737551428363</v>
       </c>
       <c r="K144" t="n">
         <v>2.329420436530153</v>
       </c>
       <c r="L144" t="n">
-        <v>0.06787638221956306</v>
+        <v>0.09249395184661599</v>
       </c>
       <c r="M144" t="n">
         <v>2.329420436530153</v>
       </c>
       <c r="N144" t="n">
-        <v>0.1182785058985603</v>
+        <v>0.1080291138388836</v>
       </c>
       <c r="O144" t="n">
         <v>2.329420436530153</v>
@@ -4945,25 +4945,25 @@
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.07296664214801568</v>
+        <v>0.06103052744295927</v>
       </c>
       <c r="G145" t="n">
         <v>2.358906771169775</v>
       </c>
       <c r="J145" t="n">
-        <v>0.07296664214801568</v>
+        <v>0.06103052744295927</v>
       </c>
       <c r="K145" t="n">
         <v>2.358906771169775</v>
       </c>
       <c r="L145" t="n">
-        <v>0.0682418500964677</v>
+        <v>0.09316795991253153</v>
       </c>
       <c r="M145" t="n">
         <v>2.358906771169775</v>
       </c>
       <c r="N145" t="n">
-        <v>0.1181882639489838</v>
+        <v>0.1046269027539215</v>
       </c>
       <c r="O145" t="n">
         <v>2.358906771169775</v>
@@ -4971,25 +4971,25 @@
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.07330635287203995</v>
+        <v>0.06020394902388883</v>
       </c>
       <c r="G146" t="n">
         <v>2.388393105809397</v>
       </c>
       <c r="J146" t="n">
-        <v>0.07330635287203995</v>
+        <v>0.06020394902388883</v>
       </c>
       <c r="K146" t="n">
         <v>2.388393105809397</v>
       </c>
       <c r="L146" t="n">
-        <v>0.06679000253521665</v>
+        <v>0.09498322464707662</v>
       </c>
       <c r="M146" t="n">
         <v>2.388393105809397</v>
       </c>
       <c r="N146" t="n">
-        <v>0.1186259182423171</v>
+        <v>0.1078099568142697</v>
       </c>
       <c r="O146" t="n">
         <v>2.388393105809397</v>
@@ -4997,25 +4997,25 @@
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.07395549615148618</v>
+        <v>0.06165660147010744</v>
       </c>
       <c r="G147" t="n">
         <v>2.41787944044902</v>
       </c>
       <c r="J147" t="n">
-        <v>0.07395549615148618</v>
+        <v>0.06165660147010744</v>
       </c>
       <c r="K147" t="n">
         <v>2.41787944044902</v>
       </c>
       <c r="L147" t="n">
-        <v>0.06803543636657407</v>
+        <v>0.09195191801512767</v>
       </c>
       <c r="M147" t="n">
         <v>2.41787944044902</v>
       </c>
       <c r="N147" t="n">
-        <v>0.1181864594520298</v>
+        <v>0.1040091279547386</v>
       </c>
       <c r="O147" t="n">
         <v>2.41787944044902</v>
@@ -5023,25 +5023,25 @@
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.07299112901219024</v>
+        <v>0.06083727371358533</v>
       </c>
       <c r="G148" t="n">
         <v>2.447365775088642</v>
       </c>
       <c r="J148" t="n">
-        <v>0.07299112901219024</v>
+        <v>0.06083727371358533</v>
       </c>
       <c r="K148" t="n">
         <v>2.447365775088642</v>
       </c>
       <c r="L148" t="n">
-        <v>0.06653617099298983</v>
+        <v>0.09272466997265039</v>
       </c>
       <c r="M148" t="n">
         <v>2.447365775088642</v>
       </c>
       <c r="N148" t="n">
-        <v>0.1183236882809238</v>
+        <v>0.1069683793171971</v>
       </c>
       <c r="O148" t="n">
         <v>2.447365775088642</v>
@@ -5049,25 +5049,25 @@
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.07241883026747284</v>
+        <v>0.05952081725729688</v>
       </c>
       <c r="G149" t="n">
         <v>2.476852109728264</v>
       </c>
       <c r="J149" t="n">
-        <v>0.07241883026747284</v>
+        <v>0.05952081725729688</v>
       </c>
       <c r="K149" t="n">
         <v>2.476852109728264</v>
       </c>
       <c r="L149" t="n">
-        <v>0.06725739892920232</v>
+        <v>0.09403319966370227</v>
       </c>
       <c r="M149" t="n">
         <v>2.476852109728264</v>
       </c>
       <c r="N149" t="n">
-        <v>0.1169468368321252</v>
+        <v>0.1046429908912835</v>
       </c>
       <c r="O149" t="n">
         <v>2.476852109728264</v>
@@ -5075,25 +5075,25 @@
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.07481840506373014</v>
+        <v>0.06024596550359762</v>
       </c>
       <c r="G150" t="n">
         <v>2.506338444367886</v>
       </c>
       <c r="J150" t="n">
-        <v>0.07481840506373014</v>
+        <v>0.06024596550359762</v>
       </c>
       <c r="K150" t="n">
         <v>2.506338444367886</v>
       </c>
       <c r="L150" t="n">
-        <v>0.06678905723228865</v>
+        <v>0.09014204133522155</v>
       </c>
       <c r="M150" t="n">
         <v>2.506338444367886</v>
       </c>
       <c r="N150" t="n">
-        <v>0.1173593404054003</v>
+        <v>0.1048035396048808</v>
       </c>
       <c r="O150" t="n">
         <v>2.506338444367886</v>
@@ -5101,25 +5101,25 @@
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.07275883937187728</v>
+        <v>0.05997729795471603</v>
       </c>
       <c r="G151" t="n">
         <v>2.535824779007508</v>
       </c>
       <c r="J151" t="n">
-        <v>0.07275883937187728</v>
+        <v>0.05997729795471603</v>
       </c>
       <c r="K151" t="n">
         <v>2.535824779007508</v>
       </c>
       <c r="L151" t="n">
-        <v>0.06633751417883997</v>
+        <v>0.09115226221529565</v>
       </c>
       <c r="M151" t="n">
         <v>2.535824779007508</v>
       </c>
       <c r="N151" t="n">
-        <v>0.1151801923351944</v>
+        <v>0.1054545585936212</v>
       </c>
       <c r="O151" t="n">
         <v>2.535824779007508</v>
@@ -5127,25 +5127,25 @@
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.07359493472025928</v>
+        <v>0.0611783793697225</v>
       </c>
       <c r="G152" t="n">
         <v>2.56531111364713</v>
       </c>
       <c r="J152" t="n">
-        <v>0.07359493472025928</v>
+        <v>0.0611783793697225</v>
       </c>
       <c r="K152" t="n">
         <v>2.56531111364713</v>
       </c>
       <c r="L152" t="n">
-        <v>0.06735340908689426</v>
+        <v>0.09278217664514411</v>
       </c>
       <c r="M152" t="n">
         <v>2.56531111364713</v>
       </c>
       <c r="N152" t="n">
-        <v>0.1170996603857445</v>
+        <v>0.1034001345251123</v>
       </c>
       <c r="O152" t="n">
         <v>2.56531111364713</v>
@@ -5153,25 +5153,25 @@
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.07385846250603213</v>
+        <v>0.06084520854210979</v>
       </c>
       <c r="G153" t="n">
         <v>2.594797448286752</v>
       </c>
       <c r="J153" t="n">
-        <v>0.07385846250603213</v>
+        <v>0.06084520854210979</v>
       </c>
       <c r="K153" t="n">
         <v>2.594797448286752</v>
       </c>
       <c r="L153" t="n">
-        <v>0.06567733576337828</v>
+        <v>0.08893143798881442</v>
       </c>
       <c r="M153" t="n">
         <v>2.594797448286752</v>
       </c>
       <c r="N153" t="n">
-        <v>0.1134347862987099</v>
+        <v>0.1019095377748031</v>
       </c>
       <c r="O153" t="n">
         <v>2.594797448286752</v>
@@ -5179,25 +5179,25 @@
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.07382012844402486</v>
+        <v>0.06060571454906406</v>
       </c>
       <c r="G154" t="n">
         <v>2.624283782926375</v>
       </c>
       <c r="J154" t="n">
-        <v>0.07382012844402486</v>
+        <v>0.06060571454906406</v>
       </c>
       <c r="K154" t="n">
         <v>2.624283782926375</v>
       </c>
       <c r="L154" t="n">
-        <v>0.06550783508911966</v>
+        <v>0.09022497210565046</v>
       </c>
       <c r="M154" t="n">
         <v>2.624283782926375</v>
       </c>
       <c r="N154" t="n">
-        <v>0.1126665418560779</v>
+        <v>0.09995822288389516</v>
       </c>
       <c r="O154" t="n">
         <v>2.624283782926375</v>
@@ -5205,25 +5205,25 @@
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.07370579361737181</v>
+        <v>0.05945026276200091</v>
       </c>
       <c r="G155" t="n">
         <v>2.653770117565997</v>
       </c>
       <c r="J155" t="n">
-        <v>0.07370579361737181</v>
+        <v>0.05945026276200091</v>
       </c>
       <c r="K155" t="n">
         <v>2.653770117565997</v>
       </c>
       <c r="L155" t="n">
-        <v>0.06670179694124763</v>
+        <v>0.08852976984242515</v>
       </c>
       <c r="M155" t="n">
         <v>2.653770117565997</v>
       </c>
       <c r="N155" t="n">
-        <v>0.1117855860903604</v>
+        <v>0.1022408110450208</v>
       </c>
       <c r="O155" t="n">
         <v>2.653770117565997</v>
@@ -5231,25 +5231,25 @@
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.07229388917557544</v>
+        <v>0.06053152271565394</v>
       </c>
       <c r="G156" t="n">
         <v>2.683256452205619</v>
       </c>
       <c r="J156" t="n">
-        <v>0.07229388917557544</v>
+        <v>0.06053152271565394</v>
       </c>
       <c r="K156" t="n">
         <v>2.683256452205619</v>
       </c>
       <c r="L156" t="n">
-        <v>0.06620491021812837</v>
+        <v>0.09074596047253375</v>
       </c>
       <c r="M156" t="n">
         <v>2.683256452205619</v>
       </c>
       <c r="N156" t="n">
-        <v>0.1148749571756289</v>
+        <v>0.1000474774356054</v>
       </c>
       <c r="O156" t="n">
         <v>2.683256452205619</v>
@@ -5257,25 +5257,25 @@
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.07307763736808787</v>
+        <v>0.05948169346243384</v>
       </c>
       <c r="G157" t="n">
         <v>2.712742786845241</v>
       </c>
       <c r="J157" t="n">
-        <v>0.07307763736808787</v>
+        <v>0.05948169346243384</v>
       </c>
       <c r="K157" t="n">
         <v>2.712742786845241</v>
       </c>
       <c r="L157" t="n">
-        <v>0.06670264866807603</v>
+        <v>0.08862164372554136</v>
       </c>
       <c r="M157" t="n">
         <v>2.712742786845241</v>
       </c>
       <c r="N157" t="n">
-        <v>0.1117531035485161</v>
+        <v>0.1011735014323099</v>
       </c>
       <c r="O157" t="n">
         <v>2.712742786845241</v>
@@ -5283,25 +5283,25 @@
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.07345912693739305</v>
+        <v>0.06062182097591471</v>
       </c>
       <c r="G158" t="n">
         <v>2.742229121484864</v>
       </c>
       <c r="J158" t="n">
-        <v>0.07345912693739305</v>
+        <v>0.06062182097591471</v>
       </c>
       <c r="K158" t="n">
         <v>2.742229121484864</v>
       </c>
       <c r="L158" t="n">
-        <v>0.06529807020835646</v>
+        <v>0.08923925724458887</v>
       </c>
       <c r="M158" t="n">
         <v>2.742229121484864</v>
       </c>
       <c r="N158" t="n">
-        <v>0.1113462688218933</v>
+        <v>0.09963464478001069</v>
       </c>
       <c r="O158" t="n">
         <v>2.742229121484864</v>
@@ -5309,25 +5309,25 @@
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.07127416417806112</v>
+        <v>0.05895647882753256</v>
       </c>
       <c r="G159" t="n">
         <v>2.771715456124486</v>
       </c>
       <c r="J159" t="n">
-        <v>0.07127416417806112</v>
+        <v>0.05895647882753256</v>
       </c>
       <c r="K159" t="n">
         <v>2.771715456124486</v>
       </c>
       <c r="L159" t="n">
-        <v>0.06451428388203406</v>
+        <v>0.08672677454299711</v>
       </c>
       <c r="M159" t="n">
         <v>2.771715456124486</v>
       </c>
       <c r="N159" t="n">
-        <v>0.1113199364110349</v>
+        <v>0.09760109939433874</v>
       </c>
       <c r="O159" t="n">
         <v>2.771715456124486</v>
@@ -5335,25 +5335,25 @@
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.07158634103870053</v>
+        <v>0.05853316466058939</v>
       </c>
       <c r="G160" t="n">
         <v>2.801201790764108</v>
       </c>
       <c r="J160" t="n">
-        <v>0.07158634103870053</v>
+        <v>0.05853316466058939</v>
       </c>
       <c r="K160" t="n">
         <v>2.801201790764108</v>
       </c>
       <c r="L160" t="n">
-        <v>0.06432057252268809</v>
+        <v>0.0885683541986631</v>
       </c>
       <c r="M160" t="n">
         <v>2.801201790764108</v>
       </c>
       <c r="N160" t="n">
-        <v>0.1121525570827439</v>
+        <v>0.09953852779387519</v>
       </c>
       <c r="O160" t="n">
         <v>2.801201790764108</v>
@@ -5361,25 +5361,25 @@
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.07249694242333217</v>
+        <v>0.05933547634660164</v>
       </c>
       <c r="G161" t="n">
         <v>2.83068812540373</v>
       </c>
       <c r="J161" t="n">
-        <v>0.07249694242333217</v>
+        <v>0.05933547634660164</v>
       </c>
       <c r="K161" t="n">
         <v>2.83068812540373</v>
       </c>
       <c r="L161" t="n">
-        <v>0.06375586101705305</v>
+        <v>0.08647162424767785</v>
       </c>
       <c r="M161" t="n">
         <v>2.83068812540373</v>
       </c>
       <c r="N161" t="n">
-        <v>0.1086240404890217</v>
+        <v>0.09915472596917888</v>
       </c>
       <c r="O161" t="n">
         <v>2.83068812540373</v>
@@ -5387,25 +5387,25 @@
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.07366638636636043</v>
+        <v>0.0592513996685324</v>
       </c>
       <c r="G162" t="n">
         <v>2.860174460043352</v>
       </c>
       <c r="J162" t="n">
-        <v>0.07366638636636043</v>
+        <v>0.0592513996685324</v>
       </c>
       <c r="K162" t="n">
         <v>2.860174460043352</v>
       </c>
       <c r="L162" t="n">
-        <v>0.06590861781525537</v>
+        <v>0.08741439837073442</v>
       </c>
       <c r="M162" t="n">
         <v>2.860174460043352</v>
       </c>
       <c r="N162" t="n">
-        <v>0.109706095347964</v>
+        <v>0.09797063472514517</v>
       </c>
       <c r="O162" t="n">
         <v>2.860174460043352</v>
@@ -5413,25 +5413,25 @@
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.07164843711079807</v>
+        <v>0.05949548817906445</v>
       </c>
       <c r="G163" t="n">
         <v>2.889660794682974</v>
       </c>
       <c r="J163" t="n">
-        <v>0.07164843711079807</v>
+        <v>0.05949548817906445</v>
       </c>
       <c r="K163" t="n">
         <v>2.889660794682974</v>
       </c>
       <c r="L163" t="n">
-        <v>0.06502557508286677</v>
+        <v>0.08578496500909275</v>
       </c>
       <c r="M163" t="n">
         <v>2.889660794682974</v>
       </c>
       <c r="N163" t="n">
-        <v>0.1100451740328135</v>
+        <v>0.09621258583732771</v>
       </c>
       <c r="O163" t="n">
         <v>2.889660794682974</v>
@@ -5439,25 +5439,25 @@
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.07209627805196682</v>
+        <v>0.06003715713522274</v>
       </c>
       <c r="G164" t="n">
         <v>2.919147129322597</v>
       </c>
       <c r="J164" t="n">
-        <v>0.07209627805196682</v>
+        <v>0.06003715713522274</v>
       </c>
       <c r="K164" t="n">
         <v>2.919147129322597</v>
       </c>
       <c r="L164" t="n">
-        <v>0.06369157811081823</v>
+        <v>0.08571744850350348</v>
       </c>
       <c r="M164" t="n">
         <v>2.919147129322597</v>
       </c>
       <c r="N164" t="n">
-        <v>0.1068018054215848</v>
+        <v>0.09593846637721011</v>
       </c>
       <c r="O164" t="n">
         <v>2.919147129322597</v>
@@ -5465,25 +5465,25 @@
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.0728745556120045</v>
+        <v>0.05990796929089921</v>
       </c>
       <c r="G165" t="n">
         <v>2.948633463962219</v>
       </c>
       <c r="J165" t="n">
-        <v>0.0728745556120045</v>
+        <v>0.05990796929089921</v>
       </c>
       <c r="K165" t="n">
         <v>2.948633463962219</v>
       </c>
       <c r="L165" t="n">
-        <v>0.0641758400496453</v>
+        <v>0.08577601513172645</v>
       </c>
       <c r="M165" t="n">
         <v>2.948633463962219</v>
       </c>
       <c r="N165" t="n">
-        <v>0.106192110299786</v>
+        <v>0.093621978008393</v>
       </c>
       <c r="O165" t="n">
         <v>2.948633463962219</v>
@@ -5491,25 +5491,25 @@
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.07243914254338552</v>
+        <v>0.0585487718779556</v>
       </c>
       <c r="G166" t="n">
         <v>2.978119798601841</v>
       </c>
       <c r="J166" t="n">
-        <v>0.07243914254338552</v>
+        <v>0.0585487718779556</v>
       </c>
       <c r="K166" t="n">
         <v>2.978119798601841</v>
       </c>
       <c r="L166" t="n">
-        <v>0.06359776556987508</v>
+        <v>0.08364719454556749</v>
       </c>
       <c r="M166" t="n">
         <v>2.978119798601841</v>
       </c>
       <c r="N166" t="n">
-        <v>0.1088400829267024</v>
+        <v>0.09390568995053901</v>
       </c>
       <c r="O166" t="n">
         <v>2.978119798601841</v>
@@ -5517,25 +5517,25 @@
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.07148511658166395</v>
+        <v>0.05930880252374634</v>
       </c>
       <c r="G167" t="n">
         <v>3.007606133241463</v>
       </c>
       <c r="J167" t="n">
-        <v>0.07148511658166395</v>
+        <v>0.05930880252374634</v>
       </c>
       <c r="K167" t="n">
         <v>3.007606133241463</v>
       </c>
       <c r="L167" t="n">
-        <v>0.06262292612031821</v>
+        <v>0.08329511270337327</v>
       </c>
       <c r="M167" t="n">
         <v>3.007606133241463</v>
       </c>
       <c r="N167" t="n">
-        <v>0.1053191129794227</v>
+        <v>0.09314553466598617</v>
       </c>
       <c r="O167" t="n">
         <v>3.007606133241463</v>
@@ -5543,25 +5543,25 @@
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.07093605401842963</v>
+        <v>0.0580985839120206</v>
       </c>
       <c r="G168" t="n">
         <v>3.037092467881085</v>
       </c>
       <c r="J168" t="n">
-        <v>0.07093605401842963</v>
+        <v>0.0580985839120206</v>
       </c>
       <c r="K168" t="n">
         <v>3.037092467881085</v>
       </c>
       <c r="L168" t="n">
-        <v>0.06272740867360518</v>
+        <v>0.08514279963649818</v>
       </c>
       <c r="M168" t="n">
         <v>3.037092467881085</v>
       </c>
       <c r="N168" t="n">
-        <v>0.1080095080808064</v>
+        <v>0.09422135511800184</v>
       </c>
       <c r="O168" t="n">
         <v>3.037092467881085</v>
@@ -5569,25 +5569,25 @@
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.07154584946686873</v>
+        <v>0.05971850384439276</v>
       </c>
       <c r="G169" t="n">
         <v>3.066578802520707</v>
       </c>
       <c r="J169" t="n">
-        <v>0.07154584946686873</v>
+        <v>0.05971850384439276</v>
       </c>
       <c r="K169" t="n">
         <v>3.066578802520707</v>
       </c>
       <c r="L169" t="n">
-        <v>0.06375271615298116</v>
+        <v>0.08582139351579655</v>
       </c>
       <c r="M169" t="n">
         <v>3.066578802520707</v>
       </c>
       <c r="N169" t="n">
-        <v>0.1045879683891304</v>
+        <v>0.09117650111814772</v>
       </c>
       <c r="O169" t="n">
         <v>3.066578802520707</v>
@@ -5595,25 +5595,25 @@
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.07168573450285662</v>
+        <v>0.0589872864070868</v>
       </c>
       <c r="G170" t="n">
         <v>3.09606513716033</v>
       </c>
       <c r="J170" t="n">
-        <v>0.07168573450285662</v>
+        <v>0.0589872864070868</v>
       </c>
       <c r="K170" t="n">
         <v>3.09606513716033</v>
       </c>
       <c r="L170" t="n">
-        <v>0.06320100083505058</v>
+        <v>0.08344349928371689</v>
       </c>
       <c r="M170" t="n">
         <v>3.09606513716033</v>
       </c>
       <c r="N170" t="n">
-        <v>0.1056288843509774</v>
+        <v>0.09243166336345453</v>
       </c>
       <c r="O170" t="n">
         <v>3.09606513716033</v>
@@ -5621,25 +5621,25 @@
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.07128821717495572</v>
+        <v>0.05936799180952701</v>
       </c>
       <c r="G171" t="n">
         <v>3.125551471799952</v>
       </c>
       <c r="J171" t="n">
-        <v>0.07128821717495572</v>
+        <v>0.05936799180952701</v>
       </c>
       <c r="K171" t="n">
         <v>3.125551471799952</v>
       </c>
       <c r="L171" t="n">
-        <v>0.06288322121685716</v>
+        <v>0.08356689576082663</v>
       </c>
       <c r="M171" t="n">
         <v>3.125551471799952</v>
       </c>
       <c r="N171" t="n">
-        <v>0.1072310485729292</v>
+        <v>0.09178037612278245</v>
       </c>
       <c r="O171" t="n">
         <v>3.125551471799952</v>
@@ -5647,25 +5647,25 @@
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.06988607952047637</v>
+        <v>0.05845283058204577</v>
       </c>
       <c r="G172" t="n">
         <v>3.155037806439574</v>
       </c>
       <c r="J172" t="n">
-        <v>0.06988607952047637</v>
+        <v>0.05845283058204577</v>
       </c>
       <c r="K172" t="n">
         <v>3.155037806439574</v>
       </c>
       <c r="L172" t="n">
-        <v>0.06391381224084003</v>
+        <v>0.08180912119573958</v>
       </c>
       <c r="M172" t="n">
         <v>3.155037806439574</v>
       </c>
       <c r="N172" t="n">
-        <v>0.1070224155925107</v>
+        <v>0.09295526661067303</v>
       </c>
       <c r="O172" t="n">
         <v>3.155037806439574</v>
@@ -5673,25 +5673,25 @@
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.07076600100968221</v>
+        <v>0.05949342116351048</v>
       </c>
       <c r="G173" t="n">
         <v>3.184524141079196</v>
       </c>
       <c r="J173" t="n">
-        <v>0.07076600100968221</v>
+        <v>0.05949342116351048</v>
       </c>
       <c r="K173" t="n">
         <v>3.184524141079196</v>
       </c>
       <c r="L173" t="n">
-        <v>0.0616581066799229</v>
+        <v>0.08312674997939716</v>
       </c>
       <c r="M173" t="n">
         <v>3.184524141079196</v>
       </c>
       <c r="N173" t="n">
-        <v>0.1065359370827437</v>
+        <v>0.09008743677372751</v>
       </c>
       <c r="O173" t="n">
         <v>3.184524141079196</v>
@@ -5699,25 +5699,25 @@
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.06966889593277142</v>
+        <v>0.0581393681951482</v>
       </c>
       <c r="G174" t="n">
         <v>3.214010475718819</v>
       </c>
       <c r="J174" t="n">
-        <v>0.06966889593277142</v>
+        <v>0.0581393681951482</v>
       </c>
       <c r="K174" t="n">
         <v>3.214010475718819</v>
       </c>
       <c r="L174" t="n">
-        <v>0.06268301079105615</v>
+        <v>0.0845192957742282</v>
       </c>
       <c r="M174" t="n">
         <v>3.214010475718819</v>
       </c>
       <c r="N174" t="n">
-        <v>0.1055825555609879</v>
+        <v>0.09128821901464466</v>
       </c>
       <c r="O174" t="n">
         <v>3.214010475718819</v>
@@ -5725,25 +5725,25 @@
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.07067022169954676</v>
+        <v>0.05876573775172701</v>
       </c>
       <c r="G175" t="n">
         <v>3.243496810358441</v>
       </c>
       <c r="J175" t="n">
-        <v>0.07067022169954676</v>
+        <v>0.05876573775172701</v>
       </c>
       <c r="K175" t="n">
         <v>3.243496810358441</v>
       </c>
       <c r="L175" t="n">
-        <v>0.06319716018148445</v>
+        <v>0.08185117841949743</v>
       </c>
       <c r="M175" t="n">
         <v>3.243496810358441</v>
       </c>
       <c r="N175" t="n">
-        <v>0.1031635506063708</v>
+        <v>0.08964018224491814</v>
       </c>
       <c r="O175" t="n">
         <v>3.243496810358441</v>
@@ -5751,25 +5751,25 @@
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.07097522678938116</v>
+        <v>0.05736453408561999</v>
       </c>
       <c r="G176" t="n">
         <v>3.272983144998063</v>
       </c>
       <c r="J176" t="n">
-        <v>0.07097522678938116</v>
+        <v>0.05736453408561999</v>
       </c>
       <c r="K176" t="n">
         <v>3.272983144998063</v>
       </c>
       <c r="L176" t="n">
-        <v>0.0632956253228823</v>
+        <v>0.0838781319880078</v>
       </c>
       <c r="M176" t="n">
         <v>3.272983144998063</v>
       </c>
       <c r="N176" t="n">
-        <v>0.1027610468443462</v>
+        <v>0.08864889251140154</v>
       </c>
       <c r="O176" t="n">
         <v>3.272983144998063</v>
@@ -5777,25 +5777,25 @@
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.0692331497257628</v>
+        <v>0.05757466294919376</v>
       </c>
       <c r="G177" t="n">
         <v>3.302469479637685</v>
       </c>
       <c r="J177" t="n">
-        <v>0.0692331497257628</v>
+        <v>0.05757466294919376</v>
       </c>
       <c r="K177" t="n">
         <v>3.302469479637685</v>
       </c>
       <c r="L177" t="n">
-        <v>0.06172221075702972</v>
+        <v>0.08318837920309011</v>
       </c>
       <c r="M177" t="n">
         <v>3.302469479637685</v>
       </c>
       <c r="N177" t="n">
-        <v>0.1037251972878128</v>
+        <v>0.09144622962032374</v>
       </c>
       <c r="O177" t="n">
         <v>3.302469479637685</v>
@@ -5803,25 +5803,25 @@
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.07022368078377007</v>
+        <v>0.05751368089667505</v>
       </c>
       <c r="G178" t="n">
         <v>3.331955814277307</v>
       </c>
       <c r="J178" t="n">
-        <v>0.07022368078377007</v>
+        <v>0.05751368089667505</v>
       </c>
       <c r="K178" t="n">
         <v>3.331955814277307</v>
       </c>
       <c r="L178" t="n">
-        <v>0.06261850979125864</v>
+        <v>0.08075495360382441</v>
       </c>
       <c r="M178" t="n">
         <v>3.331955814277307</v>
       </c>
       <c r="N178" t="n">
-        <v>0.1048969199032757</v>
+        <v>0.08915603313001007</v>
       </c>
       <c r="O178" t="n">
         <v>3.331955814277307</v>
@@ -5829,25 +5829,25 @@
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.0690432855426158</v>
+        <v>0.05790038164285997</v>
       </c>
       <c r="G179" t="n">
         <v>3.361442148916929</v>
       </c>
       <c r="J179" t="n">
-        <v>0.0690432855426158</v>
+        <v>0.05790038164285997</v>
       </c>
       <c r="K179" t="n">
         <v>3.361442148916929</v>
       </c>
       <c r="L179" t="n">
-        <v>0.0628173338195218</v>
+        <v>0.08238529690563708</v>
       </c>
       <c r="M179" t="n">
         <v>3.361442148916929</v>
       </c>
       <c r="N179" t="n">
-        <v>0.1054537201302255</v>
+        <v>0.08870343986477772</v>
       </c>
       <c r="O179" t="n">
         <v>3.361442148916929</v>
@@ -5855,25 +5855,25 @@
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.06765118956786606</v>
+        <v>0.05827982556687922</v>
       </c>
       <c r="G180" t="n">
         <v>3.390928483556551</v>
       </c>
       <c r="J180" t="n">
-        <v>0.06765118956786606</v>
+        <v>0.05827982556687922</v>
       </c>
       <c r="K180" t="n">
         <v>3.390928483556551</v>
       </c>
       <c r="L180" t="n">
-        <v>0.06189944780675825</v>
+        <v>0.08159182951780186</v>
       </c>
       <c r="M180" t="n">
         <v>3.390928483556551</v>
       </c>
       <c r="N180" t="n">
-        <v>0.105490799401218</v>
+        <v>0.08902076462584005</v>
       </c>
       <c r="O180" t="n">
         <v>3.390928483556551</v>
@@ -5881,25 +5881,25 @@
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.06888052085447198</v>
+        <v>0.05774365130411252</v>
       </c>
       <c r="G181" t="n">
         <v>3.420414818196174</v>
       </c>
       <c r="J181" t="n">
-        <v>0.06888052085447198</v>
+        <v>0.05774365130411252</v>
       </c>
       <c r="K181" t="n">
         <v>3.420414818196174</v>
       </c>
       <c r="L181" t="n">
-        <v>0.06255897676272214</v>
+        <v>0.08232032633272507</v>
       </c>
       <c r="M181" t="n">
         <v>3.420414818196174</v>
       </c>
       <c r="N181" t="n">
-        <v>0.104805751039985</v>
+        <v>0.08781711623424336</v>
       </c>
       <c r="O181" t="n">
         <v>3.420414818196174</v>
@@ -5907,25 +5907,25 @@
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.06914750731824315</v>
+        <v>0.05840716819032397</v>
       </c>
       <c r="G182" t="n">
         <v>3.449901152835796</v>
       </c>
       <c r="J182" t="n">
-        <v>0.06914750731824315</v>
+        <v>0.05840716819032397</v>
       </c>
       <c r="K182" t="n">
         <v>3.449901152835796</v>
       </c>
       <c r="L182" t="n">
-        <v>0.06193927342102054</v>
+        <v>0.08010827648224761</v>
       </c>
       <c r="M182" t="n">
         <v>3.449901152835796</v>
       </c>
       <c r="N182" t="n">
-        <v>0.1039637841723353</v>
+        <v>0.08891585787387832</v>
       </c>
       <c r="O182" t="n">
         <v>3.449901152835796</v>
@@ -5933,25 +5933,25 @@
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.06872448693679205</v>
+        <v>0.05680442938092122</v>
       </c>
       <c r="G183" t="n">
         <v>3.479387487475418</v>
       </c>
       <c r="J183" t="n">
-        <v>0.06872448693679205</v>
+        <v>0.05680442938092122</v>
       </c>
       <c r="K183" t="n">
         <v>3.479387487475418</v>
       </c>
       <c r="L183" t="n">
-        <v>0.06046842622400042</v>
+        <v>0.08221556045246259</v>
       </c>
       <c r="M183" t="n">
         <v>3.479387487475418</v>
       </c>
       <c r="N183" t="n">
-        <v>0.1039144488884794</v>
+        <v>0.08606678511964432</v>
       </c>
       <c r="O183" t="n">
         <v>3.479387487475418</v>
@@ -5959,25 +5959,25 @@
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.06759885115849869</v>
+        <v>0.05623671570799393</v>
       </c>
       <c r="G184" t="n">
         <v>3.50887382211504</v>
       </c>
       <c r="J184" t="n">
-        <v>0.06759885115849869</v>
+        <v>0.05623671570799393</v>
       </c>
       <c r="K184" t="n">
         <v>3.50887382211504</v>
       </c>
       <c r="L184" t="n">
-        <v>0.06204133882708454</v>
+        <v>0.08176681215428189</v>
       </c>
       <c r="M184" t="n">
         <v>3.50887382211504</v>
       </c>
       <c r="N184" t="n">
-        <v>0.1015661456102332</v>
+        <v>0.08632622054983105</v>
       </c>
       <c r="O184" t="n">
         <v>3.50887382211504</v>
@@ -5985,25 +5985,25 @@
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.06642240420768393</v>
+        <v>0.05607995628977211</v>
       </c>
       <c r="G185" t="n">
         <v>3.538360156754663</v>
       </c>
       <c r="J185" t="n">
-        <v>0.06642240420768393</v>
+        <v>0.05607995628977211</v>
       </c>
       <c r="K185" t="n">
         <v>3.538360156754663</v>
       </c>
       <c r="L185" t="n">
-        <v>0.06030922208171167</v>
+        <v>0.07977853578895282</v>
       </c>
       <c r="M185" t="n">
         <v>3.538360156754663</v>
       </c>
       <c r="N185" t="n">
-        <v>0.1010703086073479</v>
+        <v>0.085051325240484</v>
       </c>
       <c r="O185" t="n">
         <v>3.538360156754663</v>
@@ -6011,25 +6011,25 @@
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.06531668786200642</v>
+        <v>0.05609415125644351</v>
       </c>
       <c r="G186" t="n">
         <v>3.567846491394285</v>
       </c>
       <c r="J186" t="n">
-        <v>0.06531668786200642</v>
+        <v>0.05609415125644351</v>
       </c>
       <c r="K186" t="n">
         <v>3.567846491394285</v>
       </c>
       <c r="L186" t="n">
-        <v>0.06178634313961617</v>
+        <v>0.08105644534328341</v>
       </c>
       <c r="M186" t="n">
         <v>3.567846491394285</v>
       </c>
       <c r="N186" t="n">
-        <v>0.1034049408006948</v>
+        <v>0.08527168641427606</v>
       </c>
       <c r="O186" t="n">
         <v>3.567846491394285</v>
@@ -6037,25 +6037,25 @@
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.06674929979734329</v>
+        <v>0.05640195074663164</v>
       </c>
       <c r="G187" t="n">
         <v>3.597332826033907</v>
       </c>
       <c r="J187" t="n">
-        <v>0.06674929979734329</v>
+        <v>0.05640195074663164</v>
       </c>
       <c r="K187" t="n">
         <v>3.597332826033907</v>
       </c>
       <c r="L187" t="n">
-        <v>0.06185987821876474</v>
+        <v>0.08105493490670684</v>
       </c>
       <c r="M187" t="n">
         <v>3.597332826033907</v>
       </c>
       <c r="N187" t="n">
-        <v>0.1016057177777664</v>
+        <v>0.08624444014412361</v>
       </c>
       <c r="O187" t="n">
         <v>3.597332826033907</v>
@@ -6063,25 +6063,25 @@
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.06446537333718447</v>
+        <v>0.05650134883236599</v>
       </c>
       <c r="G188" t="n">
         <v>3.626819160673529</v>
       </c>
       <c r="J188" t="n">
-        <v>0.06446537333718447</v>
+        <v>0.05650134883236599</v>
       </c>
       <c r="K188" t="n">
         <v>3.626819160673529</v>
       </c>
       <c r="L188" t="n">
-        <v>0.06132315305741119</v>
+        <v>0.07844780666646528</v>
       </c>
       <c r="M188" t="n">
         <v>3.626819160673529</v>
       </c>
       <c r="N188" t="n">
-        <v>0.1015884531121101</v>
+        <v>0.08695210859681342</v>
       </c>
       <c r="O188" t="n">
         <v>3.626819160673529</v>
@@ -6089,25 +6089,25 @@
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.06484939732453303</v>
+        <v>0.05618135587722435</v>
       </c>
       <c r="G189" t="n">
         <v>3.656305495313152</v>
       </c>
       <c r="J189" t="n">
-        <v>0.06484939732453303</v>
+        <v>0.05618135587722435</v>
       </c>
       <c r="K189" t="n">
         <v>3.656305495313152</v>
       </c>
       <c r="L189" t="n">
-        <v>0.06172968248720952</v>
+        <v>0.08055744598813729</v>
       </c>
       <c r="M189" t="n">
         <v>3.656305495313152</v>
       </c>
       <c r="N189" t="n">
-        <v>0.1016755536137428</v>
+        <v>0.08458332409090769</v>
       </c>
       <c r="O189" t="n">
         <v>3.656305495313152</v>
@@ -6115,25 +6115,25 @@
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.06413052810398484</v>
+        <v>0.05662926846666696</v>
       </c>
       <c r="G190" t="n">
         <v>3.685791829952774</v>
       </c>
       <c r="J190" t="n">
-        <v>0.06413052810398484</v>
+        <v>0.05662926846666696</v>
       </c>
       <c r="K190" t="n">
         <v>3.685791829952774</v>
       </c>
       <c r="L190" t="n">
-        <v>0.06072014176089193</v>
+        <v>0.08058154364903089</v>
       </c>
       <c r="M190" t="n">
         <v>3.685791829952774</v>
       </c>
       <c r="N190" t="n">
-        <v>0.1039294622229473</v>
+        <v>0.08370356351472265</v>
       </c>
       <c r="O190" t="n">
         <v>3.685791829952774</v>
@@ -6141,25 +6141,25 @@
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.06383440506488323</v>
+        <v>0.05697567979155654</v>
       </c>
       <c r="G191" t="n">
         <v>3.715278164592396</v>
       </c>
       <c r="J191" t="n">
-        <v>0.06383440506488323</v>
+        <v>0.05697567979155654</v>
       </c>
       <c r="K191" t="n">
         <v>3.715278164592396</v>
       </c>
       <c r="L191" t="n">
-        <v>0.06092855957324916</v>
+        <v>0.08009936241821246</v>
       </c>
       <c r="M191" t="n">
         <v>3.715278164592396</v>
       </c>
       <c r="N191" t="n">
-        <v>0.1011201831970976</v>
+        <v>0.0855545870841761</v>
       </c>
       <c r="O191" t="n">
         <v>3.715278164592396</v>
@@ -6167,25 +6167,25 @@
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.06282475323366371</v>
+        <v>0.05613924258905319</v>
       </c>
       <c r="G192" t="n">
         <v>3.744764499232018</v>
       </c>
       <c r="J192" t="n">
-        <v>0.06282475323366371</v>
+        <v>0.05613924258905319</v>
       </c>
       <c r="K192" t="n">
         <v>3.744764499232018</v>
       </c>
       <c r="L192" t="n">
-        <v>0.059654727878939</v>
+        <v>0.07940354517832848</v>
       </c>
       <c r="M192" t="n">
         <v>3.744764499232018</v>
       </c>
       <c r="N192" t="n">
-        <v>0.09989383564588605</v>
+        <v>0.08323966730167501</v>
       </c>
       <c r="O192" t="n">
         <v>3.744764499232018</v>
@@ -6193,25 +6193,25 @@
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.06328721298859072</v>
+        <v>0.05561371446749162</v>
       </c>
       <c r="G193" t="n">
         <v>3.77425083387164</v>
       </c>
       <c r="J193" t="n">
-        <v>0.06328721298859072</v>
+        <v>0.05561371446749162</v>
       </c>
       <c r="K193" t="n">
         <v>3.77425083387164</v>
       </c>
       <c r="L193" t="n">
-        <v>0.05990076971854104</v>
+        <v>0.07738734892502513</v>
       </c>
       <c r="M193" t="n">
         <v>3.77425083387164</v>
       </c>
       <c r="N193" t="n">
-        <v>0.100274899962668</v>
+        <v>0.08390178373195757</v>
       </c>
       <c r="O193" t="n">
         <v>3.77425083387164</v>
@@ -6219,25 +6219,25 @@
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.06137198941815826</v>
+        <v>0.05575501532127254</v>
       </c>
       <c r="G194" t="n">
         <v>3.803737168511262</v>
       </c>
       <c r="J194" t="n">
-        <v>0.06137198941815826</v>
+        <v>0.05575501532127254</v>
       </c>
       <c r="K194" t="n">
         <v>3.803737168511262</v>
       </c>
       <c r="L194" t="n">
-        <v>0.05965002921424355</v>
+        <v>0.07751902924922474</v>
       </c>
       <c r="M194" t="n">
         <v>3.803737168511262</v>
       </c>
       <c r="N194" t="n">
-        <v>0.1002343501109416</v>
+        <v>0.08254034731590421</v>
       </c>
       <c r="O194" t="n">
         <v>3.803737168511262</v>
@@ -6245,25 +6245,25 @@
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.06085517171258157</v>
+        <v>0.05458858091295402</v>
       </c>
       <c r="G195" t="n">
         <v>3.833223503150884</v>
       </c>
       <c r="J195" t="n">
-        <v>0.06085517171258157</v>
+        <v>0.05458858091295402</v>
       </c>
       <c r="K195" t="n">
         <v>3.833223503150884</v>
       </c>
       <c r="L195" t="n">
-        <v>0.05931686759660095</v>
+        <v>0.07872404814491933</v>
       </c>
       <c r="M195" t="n">
         <v>3.833223503150884</v>
       </c>
       <c r="N195" t="n">
-        <v>0.09983371656921583</v>
+        <v>0.0842373173143669</v>
       </c>
       <c r="O195" t="n">
         <v>3.833223503150884</v>
@@ -6271,25 +6271,25 @@
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.06132597104431868</v>
+        <v>0.0556731743079411</v>
       </c>
       <c r="G196" t="n">
         <v>3.862709837790506</v>
       </c>
       <c r="J196" t="n">
-        <v>0.06132597104431868</v>
+        <v>0.0556731743079411</v>
       </c>
       <c r="K196" t="n">
         <v>3.862709837790506</v>
       </c>
       <c r="L196" t="n">
-        <v>0.06109361862174265</v>
+        <v>0.07757991919500268</v>
       </c>
       <c r="M196" t="n">
         <v>3.862709837790506</v>
       </c>
       <c r="N196" t="n">
-        <v>0.1028408294418889</v>
+        <v>0.08263813105277863</v>
       </c>
       <c r="O196" t="n">
         <v>3.862709837790506</v>
@@ -6297,25 +6297,25 @@
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.06133554729464716</v>
+        <v>0.05622831468497289</v>
       </c>
       <c r="G197" t="n">
         <v>3.892196172430129</v>
       </c>
       <c r="J197" t="n">
-        <v>0.06133554729464716</v>
+        <v>0.05622831468497289</v>
       </c>
       <c r="K197" t="n">
         <v>3.892196172430129</v>
       </c>
       <c r="L197" t="n">
-        <v>0.05903520747441462</v>
+        <v>0.07665995358624107</v>
       </c>
       <c r="M197" t="n">
         <v>3.892196172430129</v>
       </c>
       <c r="N197" t="n">
-        <v>0.1033344117394102</v>
+        <v>0.0817395766558945</v>
       </c>
       <c r="O197" t="n">
         <v>3.892196172430129</v>
@@ -6323,25 +6323,25 @@
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.05942983911031791</v>
+        <v>0.05501238968531532</v>
       </c>
       <c r="G198" t="n">
         <v>3.921682507069751</v>
       </c>
       <c r="J198" t="n">
-        <v>0.05942983911031791</v>
+        <v>0.05501238968531532</v>
       </c>
       <c r="K198" t="n">
         <v>3.921682507069751</v>
       </c>
       <c r="L198" t="n">
-        <v>0.06103207075400439</v>
+        <v>0.07710958299961378</v>
       </c>
       <c r="M198" t="n">
         <v>3.921682507069751</v>
       </c>
       <c r="N198" t="n">
-        <v>0.103076415020779</v>
+        <v>0.08188972521960751</v>
       </c>
       <c r="O198" t="n">
         <v>3.921682507069751</v>
@@ -6349,25 +6349,25 @@
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.05916627348172548</v>
+        <v>0.05412159326857829</v>
       </c>
       <c r="G199" t="n">
         <v>3.951168841709373</v>
       </c>
       <c r="J199" t="n">
-        <v>0.05916627348172548</v>
+        <v>0.05412159326857829</v>
       </c>
       <c r="K199" t="n">
         <v>3.951168841709373</v>
       </c>
       <c r="L199" t="n">
-        <v>0.05914724086020381</v>
+        <v>0.07673700309592416</v>
       </c>
       <c r="M199" t="n">
         <v>3.951168841709373</v>
       </c>
       <c r="N199" t="n">
-        <v>0.09934525561188644</v>
+        <v>0.08292287846891835</v>
       </c>
       <c r="O199" t="n">
         <v>3.951168841709373</v>
@@ -6375,25 +6375,25 @@
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.059106157352089</v>
+        <v>0.0540828837299682</v>
       </c>
       <c r="G200" t="n">
         <v>3.980655176348995</v>
       </c>
       <c r="J200" t="n">
-        <v>0.059106157352089</v>
+        <v>0.0540828837299682</v>
       </c>
       <c r="K200" t="n">
         <v>3.980655176348995</v>
       </c>
       <c r="L200" t="n">
-        <v>0.05965858074322602</v>
+        <v>0.07576207426508917</v>
       </c>
       <c r="M200" t="n">
         <v>3.980655176348995</v>
       </c>
       <c r="N200" t="n">
-        <v>0.1021747654885484</v>
+        <v>0.0815027810780567</v>
       </c>
       <c r="O200" t="n">
         <v>3.980655176348995</v>
@@ -6401,25 +6401,25 @@
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.05855500027424217</v>
+        <v>0.05353504429110319</v>
       </c>
       <c r="G201" t="n">
         <v>4.010141510988618</v>
       </c>
       <c r="J201" t="n">
-        <v>0.05855500027424217</v>
+        <v>0.05353504429110319</v>
       </c>
       <c r="K201" t="n">
         <v>4.010141510988618</v>
       </c>
       <c r="L201" t="n">
-        <v>0.06050477953109</v>
+        <v>0.07579823624113309</v>
       </c>
       <c r="M201" t="n">
         <v>4.010141510988618</v>
       </c>
       <c r="N201" t="n">
-        <v>0.1004921523986768</v>
+        <v>0.08142084815715396</v>
       </c>
       <c r="O201" t="n">
         <v>4.010141510988618</v>
@@ -6427,25 +6427,25 @@
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.05650801628412552</v>
+        <v>0.05353074324507204</v>
       </c>
       <c r="G202" t="n">
         <v>4.03962784562824</v>
       </c>
       <c r="J202" t="n">
-        <v>0.05650801628412552</v>
+        <v>0.05353074324507204</v>
       </c>
       <c r="K202" t="n">
         <v>4.03962784562824</v>
       </c>
       <c r="L202" t="n">
-        <v>0.06063498099733332</v>
+        <v>0.07588459501472819</v>
       </c>
       <c r="M202" t="n">
         <v>4.03962784562824</v>
       </c>
       <c r="N202" t="n">
-        <v>0.09958201652373956</v>
+        <v>0.08092414037019881</v>
       </c>
       <c r="O202" t="n">
         <v>4.03962784562824</v>
@@ -6453,25 +6453,25 @@
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.05669136498177622</v>
+        <v>0.05495811337257827</v>
       </c>
       <c r="G203" t="n">
         <v>4.069114180267862</v>
       </c>
       <c r="J203" t="n">
-        <v>0.05669136498177622</v>
+        <v>0.05495811337257827</v>
       </c>
       <c r="K203" t="n">
         <v>4.069114180267862</v>
       </c>
       <c r="L203" t="n">
-        <v>0.06039415157620926</v>
+        <v>0.0776295259825663</v>
       </c>
       <c r="M203" t="n">
         <v>4.069114180267862</v>
       </c>
       <c r="N203" t="n">
-        <v>0.1003194294097114</v>
+        <v>0.07896175291657999</v>
       </c>
       <c r="O203" t="n">
         <v>4.069114180267862</v>
@@ -6479,25 +6479,25 @@
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.05664486754333404</v>
+        <v>0.05297095787497467</v>
       </c>
       <c r="G204" t="n">
         <v>4.098600514907484</v>
       </c>
       <c r="J204" t="n">
-        <v>0.05664486754333404</v>
+        <v>0.05297095787497467</v>
       </c>
       <c r="K204" t="n">
         <v>4.098600514907484</v>
       </c>
       <c r="L204" t="n">
-        <v>0.05935545559075249</v>
+        <v>0.07551509571591243</v>
       </c>
       <c r="M204" t="n">
         <v>4.098600514907484</v>
       </c>
       <c r="N204" t="n">
-        <v>0.09901286682554887</v>
+        <v>0.08017172084578264</v>
       </c>
       <c r="O204" t="n">
         <v>4.098600514907484</v>
@@ -6505,25 +6505,25 @@
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.05665424838462681</v>
+        <v>0.05309978700845722</v>
       </c>
       <c r="G205" t="n">
         <v>4.128086849547106</v>
       </c>
       <c r="J205" t="n">
-        <v>0.05665424838462681</v>
+        <v>0.05309978700845722</v>
       </c>
       <c r="K205" t="n">
         <v>4.128086849547106</v>
       </c>
       <c r="L205" t="n">
-        <v>0.0591881447473615</v>
+        <v>0.07597955388150428</v>
       </c>
       <c r="M205" t="n">
         <v>4.128086849547106</v>
       </c>
       <c r="N205" t="n">
-        <v>0.1014708950896712</v>
+        <v>0.07981307885985849</v>
       </c>
       <c r="O205" t="n">
         <v>4.128086849547106</v>
@@ -6531,25 +6531,25 @@
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.05596705606292184</v>
+        <v>0.05387679450646452</v>
       </c>
       <c r="G206" t="n">
         <v>4.157573184186728</v>
       </c>
       <c r="J206" t="n">
-        <v>0.05596705606292184</v>
+        <v>0.05387679450646452</v>
       </c>
       <c r="K206" t="n">
         <v>4.157573184186728</v>
       </c>
       <c r="L206" t="n">
-        <v>0.06027982916633604</v>
+        <v>0.07524095995030465</v>
       </c>
       <c r="M206" t="n">
         <v>4.157573184186728</v>
       </c>
       <c r="N206" t="n">
-        <v>0.1016862914233384</v>
+        <v>0.07802860356553779</v>
       </c>
       <c r="O206" t="n">
         <v>4.157573184186728</v>
@@ -6557,25 +6557,25 @@
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.0557591806913566</v>
+        <v>0.0528000945574164</v>
       </c>
       <c r="G207" t="n">
         <v>4.18705951882635</v>
       </c>
       <c r="J207" t="n">
-        <v>0.0557591806913566</v>
+        <v>0.0528000945574164</v>
       </c>
       <c r="K207" t="n">
         <v>4.18705951882635</v>
       </c>
       <c r="L207" t="n">
-        <v>0.05789708351355319</v>
+        <v>0.07675057173701377</v>
       </c>
       <c r="M207" t="n">
         <v>4.18705951882635</v>
       </c>
       <c r="N207" t="n">
-        <v>0.09876175638621143</v>
+        <v>0.07813089667108288</v>
       </c>
       <c r="O207" t="n">
         <v>4.18705951882635</v>
@@ -6583,25 +6583,25 @@
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.05431772296133662</v>
+        <v>0.05374758889128931</v>
       </c>
       <c r="G208" t="n">
         <v>4.216545853465973</v>
       </c>
       <c r="J208" t="n">
-        <v>0.05431772296133662</v>
+        <v>0.05374758889128931</v>
       </c>
       <c r="K208" t="n">
         <v>4.216545853465973</v>
       </c>
       <c r="L208" t="n">
-        <v>0.05851476922887044</v>
+        <v>0.07442148183536532</v>
       </c>
       <c r="M208" t="n">
         <v>4.216545853465973</v>
       </c>
       <c r="N208" t="n">
-        <v>0.1004066645112205</v>
+        <v>0.07851722276942932</v>
       </c>
       <c r="O208" t="n">
         <v>4.216545853465973</v>
@@ -6609,25 +6609,25 @@
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.0543188589610898</v>
+        <v>0.05340892546073382</v>
       </c>
       <c r="G209" t="n">
         <v>4.246032188105595</v>
       </c>
       <c r="J209" t="n">
-        <v>0.0543188589610898</v>
+        <v>0.05340892546073382</v>
       </c>
       <c r="K209" t="n">
         <v>4.246032188105595</v>
       </c>
       <c r="L209" t="n">
-        <v>0.05797738994184797</v>
+        <v>0.07636711134512172</v>
       </c>
       <c r="M209" t="n">
         <v>4.246032188105595</v>
       </c>
       <c r="N209" t="n">
-        <v>0.09881560308727276</v>
+        <v>0.07839940352788513</v>
       </c>
       <c r="O209" t="n">
         <v>4.246032188105595</v>
@@ -6635,25 +6635,25 @@
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.05377750082640183</v>
+        <v>0.05317043863012485</v>
       </c>
       <c r="G210" t="n">
         <v>4.275518522745217</v>
       </c>
       <c r="J210" t="n">
-        <v>0.05377750082640183</v>
+        <v>0.05317043863012485</v>
       </c>
       <c r="K210" t="n">
         <v>4.275518522745217</v>
       </c>
       <c r="L210" t="n">
-        <v>0.05962159755353574</v>
+        <v>0.07576798083911353</v>
       </c>
       <c r="M210" t="n">
         <v>4.275518522745217</v>
       </c>
       <c r="N210" t="n">
-        <v>0.10032577862834</v>
+        <v>0.07766604232864366</v>
       </c>
       <c r="O210" t="n">
         <v>4.275518522745217</v>
@@ -6661,25 +6661,25 @@
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.05372810450208864</v>
+        <v>0.05195530137220931</v>
       </c>
       <c r="G211" t="n">
         <v>4.30500485738484</v>
       </c>
       <c r="J211" t="n">
-        <v>0.05372810450208864</v>
+        <v>0.05195530137220931</v>
       </c>
       <c r="K211" t="n">
         <v>4.30500485738484</v>
       </c>
       <c r="L211" t="n">
-        <v>0.05913627009919963</v>
+        <v>0.07576666467690293</v>
       </c>
       <c r="M211" t="n">
         <v>4.30500485738484</v>
       </c>
       <c r="N211" t="n">
-        <v>0.1003672261587064</v>
+        <v>0.07833676306192512</v>
       </c>
       <c r="O211" t="n">
         <v>4.30500485738484</v>
@@ -6687,25 +6687,25 @@
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.05271891092100499</v>
+        <v>0.05316637405239473</v>
       </c>
       <c r="G212" t="n">
         <v>4.334491192024462</v>
       </c>
       <c r="J212" t="n">
-        <v>0.05271891092100499</v>
+        <v>0.05316637405239473</v>
       </c>
       <c r="K212" t="n">
         <v>4.334491192024462</v>
       </c>
       <c r="L212" t="n">
-        <v>0.05808481928776266</v>
+        <v>0.07627909854146131</v>
       </c>
       <c r="M212" t="n">
         <v>4.334491192024462</v>
       </c>
       <c r="N212" t="n">
-        <v>0.09925070699633395</v>
+        <v>0.07945917654053264</v>
       </c>
       <c r="O212" t="n">
         <v>4.334491192024462</v>
@@ -6713,25 +6713,25 @@
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.05261248692773567</v>
+        <v>0.05155582594126222</v>
       </c>
       <c r="G213" t="n">
         <v>4.363977526664084</v>
       </c>
       <c r="J213" t="n">
-        <v>0.05261248692773567</v>
+        <v>0.05155582594126222</v>
       </c>
       <c r="K213" t="n">
         <v>4.363977526664084</v>
       </c>
       <c r="L213" t="n">
-        <v>0.05867921106602492</v>
+        <v>0.0745610578579944</v>
       </c>
       <c r="M213" t="n">
         <v>4.363977526664084</v>
       </c>
       <c r="N213" t="n">
-        <v>0.1000789075577196</v>
+        <v>0.07812407337769901</v>
       </c>
       <c r="O213" t="n">
         <v>4.363977526664084</v>
@@ -6739,25 +6739,25 @@
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.05269428144797453</v>
+        <v>0.05177606898451063</v>
       </c>
       <c r="G214" t="n">
         <v>4.393463861303706</v>
       </c>
       <c r="J214" t="n">
-        <v>0.05269428144797453</v>
+        <v>0.05177606898451063</v>
       </c>
       <c r="K214" t="n">
         <v>4.393463861303706</v>
       </c>
       <c r="L214" t="n">
-        <v>0.05831889364859195</v>
+        <v>0.07341232694419017</v>
       </c>
       <c r="M214" t="n">
         <v>4.393463861303706</v>
       </c>
       <c r="N214" t="n">
-        <v>0.09947346482344388</v>
+        <v>0.0780957568602457</v>
       </c>
       <c r="O214" t="n">
         <v>4.393463861303706</v>
@@ -6765,25 +6765,25 @@
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.05132739101686083</v>
+        <v>0.05233726349899435</v>
       </c>
       <c r="G215" t="n">
         <v>4.422950195943328</v>
       </c>
       <c r="J215" t="n">
-        <v>0.05132739101686083</v>
+        <v>0.05233726349899435</v>
       </c>
       <c r="K215" t="n">
         <v>4.422950195943328</v>
       </c>
       <c r="L215" t="n">
-        <v>0.05738335069393807</v>
+        <v>0.07395490687377884</v>
       </c>
       <c r="M215" t="n">
         <v>4.422950195943328</v>
       </c>
       <c r="N215" t="n">
-        <v>0.1006295464293578</v>
+        <v>0.07813029599791997</v>
       </c>
       <c r="O215" t="n">
         <v>4.422950195943328</v>
@@ -6791,25 +6791,25 @@
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.05186965540328072</v>
+        <v>0.05129699077661422</v>
       </c>
       <c r="G216" t="n">
         <v>4.452436530582951</v>
       </c>
       <c r="J216" t="n">
-        <v>0.05186965540328072</v>
+        <v>0.05129699077661422</v>
       </c>
       <c r="K216" t="n">
         <v>4.452436530582951</v>
       </c>
       <c r="L216" t="n">
-        <v>0.05823435101583355</v>
+        <v>0.07428511984064801</v>
       </c>
       <c r="M216" t="n">
         <v>4.452436530582951</v>
       </c>
       <c r="N216" t="n">
-        <v>0.09915402192786428</v>
+        <v>0.07769875432639445</v>
       </c>
       <c r="O216" t="n">
         <v>4.452436530582951</v>
@@ -6817,25 +6817,25 @@
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.05069985672224879</v>
+        <v>0.05121480404077551</v>
       </c>
       <c r="G217" t="n">
         <v>4.481922865222573</v>
       </c>
       <c r="J217" t="n">
-        <v>0.05069985672224879</v>
+        <v>0.05121480404077551</v>
       </c>
       <c r="K217" t="n">
         <v>4.481922865222573</v>
       </c>
       <c r="L217" t="n">
-        <v>0.05764065978658129</v>
+        <v>0.07543768247658744</v>
       </c>
       <c r="M217" t="n">
         <v>4.481922865222573</v>
       </c>
       <c r="N217" t="n">
-        <v>0.09824881523580795</v>
+        <v>0.07586881416317048</v>
       </c>
       <c r="O217" t="n">
         <v>4.481922865222573</v>
@@ -6843,25 +6843,25 @@
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.05090520572786555</v>
+        <v>0.05195879471522535</v>
       </c>
       <c r="G218" t="n">
         <v>4.511409199862195</v>
       </c>
       <c r="J218" t="n">
-        <v>0.05090520572786555</v>
+        <v>0.05195879471522535</v>
       </c>
       <c r="K218" t="n">
         <v>4.511409199862195</v>
       </c>
       <c r="L218" t="n">
-        <v>0.05853951719327628</v>
+        <v>0.07330931168669426</v>
       </c>
       <c r="M218" t="n">
         <v>4.511409199862195</v>
       </c>
       <c r="N218" t="n">
-        <v>0.09918724636153328</v>
+        <v>0.07611285280819521</v>
       </c>
       <c r="O218" t="n">
         <v>4.511409199862195</v>
@@ -6869,25 +6869,25 @@
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.05222121223233572</v>
+        <v>0.05017446712326242</v>
       </c>
       <c r="G219" t="n">
         <v>4.540895534501817</v>
       </c>
       <c r="J219" t="n">
-        <v>0.05222121223233572</v>
+        <v>0.05017446712326242</v>
       </c>
       <c r="K219" t="n">
         <v>4.540895534501817</v>
       </c>
       <c r="L219" t="n">
-        <v>0.0585478890491599</v>
+        <v>0.07544248813905549</v>
       </c>
       <c r="M219" t="n">
         <v>4.540895534501817</v>
       </c>
       <c r="N219" t="n">
-        <v>0.0993849319149291</v>
+        <v>0.07711742411570645</v>
       </c>
       <c r="O219" t="n">
         <v>4.540895534501817</v>
@@ -6895,25 +6895,25 @@
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.05124906859266459</v>
+        <v>0.05127444297583228</v>
       </c>
       <c r="G220" t="n">
         <v>4.570381869141439</v>
       </c>
       <c r="J220" t="n">
-        <v>0.05124906859266459</v>
+        <v>0.05127444297583228</v>
       </c>
       <c r="K220" t="n">
         <v>4.570381869141439</v>
       </c>
       <c r="L220" t="n">
-        <v>0.05875596666900203</v>
+        <v>0.07379670740488735</v>
       </c>
       <c r="M220" t="n">
         <v>4.570381869141439</v>
       </c>
       <c r="N220" t="n">
-        <v>0.09721984835893907</v>
+        <v>0.07632109972296605</v>
       </c>
       <c r="O220" t="n">
         <v>4.570381869141439</v>
@@ -6921,25 +6921,25 @@
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.05065126084818222</v>
+        <v>0.0496768478852455</v>
       </c>
       <c r="G221" t="n">
         <v>4.599868203781061</v>
       </c>
       <c r="J221" t="n">
-        <v>0.05065126084818222</v>
+        <v>0.0496768478852455</v>
       </c>
       <c r="K221" t="n">
         <v>4.599868203781061</v>
       </c>
       <c r="L221" t="n">
-        <v>0.05673276161231536</v>
+        <v>0.07510498129067682</v>
       </c>
       <c r="M221" t="n">
         <v>4.599868203781061</v>
       </c>
       <c r="N221" t="n">
-        <v>0.1002658826012931</v>
+        <v>0.07652406525548595</v>
       </c>
       <c r="O221" t="n">
         <v>4.599868203781061</v>
@@ -6947,25 +6947,25 @@
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.05150639131712244</v>
+        <v>0.05128570387542294</v>
       </c>
       <c r="G222" t="n">
         <v>4.629354538420683</v>
       </c>
       <c r="J222" t="n">
-        <v>0.05150639131712244</v>
+        <v>0.05128570387542294</v>
       </c>
       <c r="K222" t="n">
         <v>4.629354538420683</v>
       </c>
       <c r="L222" t="n">
-        <v>0.05725591633355028</v>
+        <v>0.07323173555120643</v>
       </c>
       <c r="M222" t="n">
         <v>4.629354538420683</v>
       </c>
       <c r="N222" t="n">
-        <v>0.09690724996804947</v>
+        <v>0.07842725596687389</v>
       </c>
       <c r="O222" t="n">
         <v>4.629354538420683</v>
@@ -6973,25 +6973,25 @@
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.05230398361549189</v>
+        <v>0.05122971913050656</v>
       </c>
       <c r="G223" t="n">
         <v>4.658840873060305</v>
       </c>
       <c r="J223" t="n">
-        <v>0.05230398361549189</v>
+        <v>0.05122971913050656</v>
       </c>
       <c r="K223" t="n">
         <v>4.658840873060305</v>
       </c>
       <c r="L223" t="n">
-        <v>0.05823768592582443</v>
+        <v>0.07437437204954185</v>
       </c>
       <c r="M223" t="n">
         <v>4.658840873060305</v>
       </c>
       <c r="N223" t="n">
-        <v>0.09740660730236203</v>
+        <v>0.07680172351967123</v>
       </c>
       <c r="O223" t="n">
         <v>4.658840873060305</v>
@@ -6999,25 +6999,25 @@
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.05180115693857723</v>
+        <v>0.05006678803955384</v>
       </c>
       <c r="G224" t="n">
         <v>4.688327207699928</v>
       </c>
       <c r="J224" t="n">
-        <v>0.05180115693857723</v>
+        <v>0.05006678803955384</v>
       </c>
       <c r="K224" t="n">
         <v>4.688327207699928</v>
       </c>
       <c r="L224" t="n">
-        <v>0.05673621266700243</v>
+        <v>0.07559838983980328</v>
       </c>
       <c r="M224" t="n">
         <v>4.688327207699928</v>
       </c>
       <c r="N224" t="n">
-        <v>0.09832220147545004</v>
+        <v>0.07818973220946357</v>
       </c>
       <c r="O224" t="n">
         <v>4.688327207699928</v>
@@ -7025,25 +7025,25 @@
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.0511155562000924</v>
+        <v>0.05045555334092273</v>
       </c>
       <c r="G225" t="n">
         <v>4.71781354233955</v>
       </c>
       <c r="J225" t="n">
-        <v>0.0511155562000924</v>
+        <v>0.05045555334092273</v>
       </c>
       <c r="K225" t="n">
         <v>4.71781354233955</v>
       </c>
       <c r="L225" t="n">
-        <v>0.05830466114387177</v>
+        <v>0.07304884102309799</v>
       </c>
       <c r="M225" t="n">
         <v>4.71781354233955</v>
       </c>
       <c r="N225" t="n">
-        <v>0.09802914166962366</v>
+        <v>0.07595477246114886</v>
       </c>
       <c r="O225" t="n">
         <v>4.71781354233955</v>
@@ -7051,25 +7051,25 @@
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.05141055779303826</v>
+        <v>0.04890598714435396</v>
       </c>
       <c r="G226" t="n">
         <v>4.747299876979172</v>
       </c>
       <c r="J226" t="n">
-        <v>0.05141055779303826</v>
+        <v>0.04890598714435396</v>
       </c>
       <c r="K226" t="n">
         <v>4.747299876979172</v>
       </c>
       <c r="L226" t="n">
-        <v>0.05611258200624247</v>
+        <v>0.07365479987199751</v>
       </c>
       <c r="M226" t="n">
         <v>4.747299876979172</v>
       </c>
       <c r="N226" t="n">
-        <v>0.09730895193168451</v>
+        <v>0.07596172612435238</v>
       </c>
       <c r="O226" t="n">
         <v>4.747299876979172</v>
@@ -7077,25 +7077,25 @@
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.05166003800560012</v>
+        <v>0.04889476562630173</v>
       </c>
       <c r="G227" t="n">
         <v>4.776786211618794</v>
       </c>
       <c r="J227" t="n">
-        <v>0.05166003800560012</v>
+        <v>0.04889476562630173</v>
       </c>
       <c r="K227" t="n">
         <v>4.776786211618794</v>
       </c>
       <c r="L227" t="n">
-        <v>0.05688069290505731</v>
+        <v>0.07502089201926601</v>
       </c>
       <c r="M227" t="n">
         <v>4.776786211618794</v>
       </c>
       <c r="N227" t="n">
-        <v>0.09786923090938134</v>
+        <v>0.07598562879274477</v>
       </c>
       <c r="O227" t="n">
         <v>4.776786211618794</v>
@@ -7103,25 +7103,25 @@
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.05047713878221283</v>
+        <v>0.048730058879098</v>
       </c>
       <c r="G228" t="n">
         <v>4.806272546258417</v>
       </c>
       <c r="J228" t="n">
-        <v>0.05047713878221283</v>
+        <v>0.048730058879098</v>
       </c>
       <c r="K228" t="n">
         <v>4.806272546258417</v>
       </c>
       <c r="L228" t="n">
-        <v>0.05591590313734522</v>
+        <v>0.07315182836274185</v>
       </c>
       <c r="M228" t="n">
         <v>4.806272546258417</v>
       </c>
       <c r="N228" t="n">
-        <v>0.09885285951638338</v>
+        <v>0.07657830703987252</v>
       </c>
       <c r="O228" t="n">
         <v>4.806272546258417</v>
@@ -7129,25 +7129,25 @@
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.05207849345691066</v>
+        <v>0.05000403022829251</v>
       </c>
       <c r="G229" t="n">
         <v>4.835758880898039</v>
       </c>
       <c r="J229" t="n">
-        <v>0.05207849345691066</v>
+        <v>0.05000403022829251</v>
       </c>
       <c r="K229" t="n">
         <v>4.835758880898039</v>
       </c>
       <c r="L229" t="n">
-        <v>0.05657484010349292</v>
+        <v>0.07314158518921743</v>
       </c>
       <c r="M229" t="n">
         <v>4.835758880898039</v>
       </c>
       <c r="N229" t="n">
-        <v>0.09793856139034283</v>
+        <v>0.0760078947265608</v>
       </c>
       <c r="O229" t="n">
         <v>4.835758880898039</v>
@@ -7155,25 +7155,25 @@
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.0513381535876393</v>
+        <v>0.04811667539960729</v>
       </c>
       <c r="G230" t="n">
         <v>4.865245215537661</v>
       </c>
       <c r="J230" t="n">
-        <v>0.0513381535876393</v>
+        <v>0.04811667539960729</v>
       </c>
       <c r="K230" t="n">
         <v>4.865245215537661</v>
       </c>
       <c r="L230" t="n">
-        <v>0.05595087450037724</v>
+        <v>0.07341286722619268</v>
       </c>
       <c r="M230" t="n">
         <v>4.865245215537661</v>
       </c>
       <c r="N230" t="n">
-        <v>0.0969391184223542</v>
+        <v>0.07879317308540976</v>
       </c>
       <c r="O230" t="n">
         <v>4.865245215537661</v>
@@ -7181,25 +7181,25 @@
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.05114176055212062</v>
+        <v>0.04937389400643673</v>
       </c>
       <c r="G231" t="n">
         <v>4.894731550177283</v>
       </c>
       <c r="J231" t="n">
-        <v>0.05114176055212062</v>
+        <v>0.04937389400643673</v>
       </c>
       <c r="K231" t="n">
         <v>4.894731550177283</v>
       </c>
       <c r="L231" t="n">
-        <v>0.05647295889290748</v>
+        <v>0.07419452221564489</v>
       </c>
       <c r="M231" t="n">
         <v>4.894731550177283</v>
       </c>
       <c r="N231" t="n">
-        <v>0.09734858964160258</v>
+        <v>0.07735143618286681</v>
       </c>
       <c r="O231" t="n">
         <v>4.894731550177283</v>
@@ -7207,25 +7207,25 @@
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.05156562100004457</v>
+        <v>0.04885467318155833</v>
       </c>
       <c r="G232" t="n">
         <v>4.924217884816906</v>
       </c>
       <c r="J232" t="n">
-        <v>0.05156562100004457</v>
+        <v>0.04885467318155833</v>
       </c>
       <c r="K232" t="n">
         <v>4.924217884816906</v>
       </c>
       <c r="L232" t="n">
-        <v>0.05573933847748153</v>
+        <v>0.07575242398843293</v>
       </c>
       <c r="M232" t="n">
         <v>4.924217884816906</v>
       </c>
       <c r="N232" t="n">
-        <v>0.09565824811771234</v>
+        <v>0.0781322143662324</v>
       </c>
       <c r="O232" t="n">
         <v>4.924217884816906</v>
@@ -7233,25 +7233,25 @@
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.05058250138384199</v>
+        <v>0.04788226059933876</v>
       </c>
       <c r="G233" t="n">
         <v>4.953704219456528</v>
       </c>
       <c r="J233" t="n">
-        <v>0.05058250138384199</v>
+        <v>0.04788226059933876</v>
       </c>
       <c r="K233" t="n">
         <v>4.953704219456528</v>
       </c>
       <c r="L233" t="n">
-        <v>0.05680213769097289</v>
+        <v>0.07485657740985494</v>
       </c>
       <c r="M233" t="n">
         <v>4.953704219456528</v>
       </c>
       <c r="N233" t="n">
-        <v>0.09553812549454803</v>
+        <v>0.07677477825028482</v>
       </c>
       <c r="O233" t="n">
         <v>4.953704219456528</v>
@@ -7259,25 +7259,25 @@
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.05105812299352436</v>
+        <v>0.04884218576364782</v>
       </c>
       <c r="G234" t="n">
         <v>4.98319055409615</v>
       </c>
       <c r="J234" t="n">
-        <v>0.05105812299352436</v>
+        <v>0.04884218576364782</v>
       </c>
       <c r="K234" t="n">
         <v>4.98319055409615</v>
       </c>
       <c r="L234" t="n">
-        <v>0.05580266979921045</v>
+        <v>0.07439041621151693</v>
       </c>
       <c r="M234" t="n">
         <v>4.98319055409615</v>
       </c>
       <c r="N234" t="n">
-        <v>0.09870838383152265</v>
+        <v>0.07837881693987281</v>
       </c>
       <c r="O234" t="n">
         <v>4.98319055409615</v>
@@ -7285,25 +7285,25 @@
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.05233725698676539</v>
+        <v>0.04800586827321217</v>
       </c>
       <c r="G235" t="n">
         <v>5.012676888735772</v>
       </c>
       <c r="J235" t="n">
-        <v>0.05233725698676539</v>
+        <v>0.04800586827321217</v>
       </c>
       <c r="K235" t="n">
         <v>5.012676888735772</v>
       </c>
       <c r="L235" t="n">
-        <v>0.05706234223420786</v>
+        <v>0.07560867407583799</v>
       </c>
       <c r="M235" t="n">
         <v>5.012676888735772</v>
       </c>
       <c r="N235" t="n">
-        <v>0.09662794508846272</v>
+        <v>0.0766350649617828</v>
       </c>
       <c r="O235" t="n">
         <v>5.012676888735772</v>
@@ -7311,25 +7311,25 @@
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.05180790902367337</v>
+        <v>0.04718336336579809</v>
       </c>
       <c r="G236" t="n">
         <v>5.042163223375394</v>
       </c>
       <c r="J236" t="n">
-        <v>0.05180790902367337</v>
+        <v>0.04718336336579809</v>
       </c>
       <c r="K236" t="n">
         <v>5.042163223375394</v>
       </c>
       <c r="L236" t="n">
-        <v>0.05678313415108569</v>
+        <v>0.07538341668228805</v>
       </c>
       <c r="M236" t="n">
         <v>5.042163223375394</v>
       </c>
       <c r="N236" t="n">
-        <v>0.09830270284480146</v>
+        <v>0.07773683195162545</v>
       </c>
       <c r="O236" t="n">
         <v>5.042163223375394</v>
@@ -7337,25 +7337,25 @@
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.05104528643023783</v>
+        <v>0.04765636360756242</v>
       </c>
       <c r="G237" t="n">
         <v>5.071649558015016</v>
       </c>
       <c r="J237" t="n">
-        <v>0.05104528643023783</v>
+        <v>0.04765636360756242</v>
       </c>
       <c r="K237" t="n">
         <v>5.071649558015016</v>
       </c>
       <c r="L237" t="n">
-        <v>0.05710441040836466</v>
+        <v>0.07388354544323558</v>
       </c>
       <c r="M237" t="n">
         <v>5.071649558015016</v>
       </c>
       <c r="N237" t="n">
-        <v>0.09755491868693157</v>
+        <v>0.07815402902580633</v>
       </c>
       <c r="O237" t="n">
         <v>5.071649558015016</v>
@@ -7363,25 +7363,25 @@
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.05201654117714224</v>
+        <v>0.04709066527866283</v>
       </c>
       <c r="G238" t="n">
         <v>5.101135892654638</v>
       </c>
       <c r="J238" t="n">
-        <v>0.05201654117714224</v>
+        <v>0.04709066527866283</v>
       </c>
       <c r="K238" t="n">
         <v>5.101135892654638</v>
       </c>
       <c r="L238" t="n">
-        <v>0.0550859836666624</v>
+        <v>0.07580472607842516</v>
       </c>
       <c r="M238" t="n">
         <v>5.101135892654638</v>
       </c>
       <c r="N238" t="n">
-        <v>0.09488181596709803</v>
+        <v>0.07851257139136927</v>
       </c>
       <c r="O238" t="n">
         <v>5.101135892654638</v>
@@ -7389,25 +7389,25 @@
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.05154491827435359</v>
+        <v>0.04756014221697544</v>
       </c>
       <c r="G239" t="n">
         <v>5.130622227294261</v>
       </c>
       <c r="J239" t="n">
-        <v>0.05154491827435359</v>
+        <v>0.04756014221697544</v>
       </c>
       <c r="K239" t="n">
         <v>5.130622227294261</v>
       </c>
       <c r="L239" t="n">
-        <v>0.05669818101195453</v>
+        <v>0.07433203284595567</v>
       </c>
       <c r="M239" t="n">
         <v>5.130622227294261</v>
       </c>
       <c r="N239" t="n">
-        <v>0.09557760337005862</v>
+        <v>0.07925622570922423</v>
       </c>
       <c r="O239" t="n">
         <v>5.130622227294261</v>
@@ -7415,25 +7415,25 @@
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.05035191864769702</v>
+        <v>0.0466782308032459</v>
       </c>
       <c r="G240" t="n">
         <v>5.160108561933883</v>
       </c>
       <c r="J240" t="n">
-        <v>0.05035191864769702</v>
+        <v>0.0466782308032459</v>
       </c>
       <c r="K240" t="n">
         <v>5.160108561933883</v>
       </c>
       <c r="L240" t="n">
-        <v>0.05489710911454645</v>
+        <v>0.07603184450738144</v>
       </c>
       <c r="M240" t="n">
         <v>5.160108561933883</v>
       </c>
       <c r="N240" t="n">
-        <v>0.09774431902130948</v>
+        <v>0.07806880146051265</v>
       </c>
       <c r="O240" t="n">
         <v>5.160108561933883</v>
@@ -7441,25 +7441,25 @@
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.05066458837459956</v>
+        <v>0.04760422473838036</v>
       </c>
       <c r="G241" t="n">
         <v>5.189594896573505</v>
       </c>
       <c r="J241" t="n">
-        <v>0.05066458837459956</v>
+        <v>0.04760422473838036</v>
       </c>
       <c r="K241" t="n">
         <v>5.189594896573505</v>
       </c>
       <c r="L241" t="n">
-        <v>0.05540149323372383</v>
+        <v>0.07450548402094968</v>
       </c>
       <c r="M241" t="n">
         <v>5.189594896573505</v>
       </c>
       <c r="N241" t="n">
-        <v>0.09663738920805411</v>
+        <v>0.07992985903273164</v>
       </c>
       <c r="O241" t="n">
         <v>5.189594896573505</v>
@@ -7467,25 +7467,25 @@
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.05185806922363831</v>
+        <v>0.04697388028524031</v>
       </c>
       <c r="G242" t="n">
         <v>5.219081231213127</v>
       </c>
       <c r="J242" t="n">
-        <v>0.05185806922363831</v>
+        <v>0.04697388028524031</v>
       </c>
       <c r="K242" t="n">
         <v>5.219081231213127</v>
       </c>
       <c r="L242" t="n">
-        <v>0.0560363698489941</v>
+        <v>0.07352121033363881</v>
       </c>
       <c r="M242" t="n">
         <v>5.219081231213127</v>
       </c>
       <c r="N242" t="n">
-        <v>0.09704027361299959</v>
+        <v>0.08044460427391437</v>
       </c>
       <c r="O242" t="n">
         <v>5.219081231213127</v>
@@ -7493,25 +7493,25 @@
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.05093662882923588</v>
+        <v>0.04628668167123957</v>
       </c>
       <c r="G243" t="n">
         <v>5.248567565852749</v>
       </c>
       <c r="J243" t="n">
-        <v>0.05093662882923588</v>
+        <v>0.04628668167123957</v>
       </c>
       <c r="K243" t="n">
         <v>5.248567565852749</v>
       </c>
       <c r="L243" t="n">
-        <v>0.05515229782150984</v>
+        <v>0.07544084494551594</v>
       </c>
       <c r="M243" t="n">
         <v>5.248567565852749</v>
       </c>
       <c r="N243" t="n">
-        <v>0.09515029141642503</v>
+        <v>0.07920963223818039</v>
       </c>
       <c r="O243" t="n">
         <v>5.248567565852749</v>
@@ -7519,25 +7519,25 @@
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.05052963026986523</v>
+        <v>0.04648147492944768</v>
       </c>
       <c r="G244" t="n">
         <v>5.278053900492371</v>
       </c>
       <c r="J244" t="n">
-        <v>0.05052963026986523</v>
+        <v>0.04648147492944768</v>
       </c>
       <c r="K244" t="n">
         <v>5.278053900492371</v>
       </c>
       <c r="L244" t="n">
-        <v>0.05551123683346476</v>
+        <v>0.07473015655172312</v>
       </c>
       <c r="M244" t="n">
         <v>5.278053900492371</v>
       </c>
       <c r="N244" t="n">
-        <v>0.09455057001794145</v>
+        <v>0.08028884143485716</v>
       </c>
       <c r="O244" t="n">
         <v>5.278053900492371</v>
@@ -7545,25 +7545,25 @@
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.05128372891418202</v>
+        <v>0.04556955942762732</v>
       </c>
       <c r="G245" t="n">
         <v>5.307540235131994</v>
       </c>
       <c r="J245" t="n">
-        <v>0.05128372891418202</v>
+        <v>0.04556955942762732</v>
       </c>
       <c r="K245" t="n">
         <v>5.307540235131994</v>
       </c>
       <c r="L245" t="n">
-        <v>0.05604433755531885</v>
+        <v>0.07356317902363005</v>
       </c>
       <c r="M245" t="n">
         <v>5.307540235131994</v>
       </c>
       <c r="N245" t="n">
-        <v>0.09464067883768228</v>
+        <v>0.07995183701591053</v>
       </c>
       <c r="O245" t="n">
         <v>5.307540235131994</v>
@@ -7571,25 +7571,25 @@
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.05058330704071443</v>
+        <v>0.04598766734824281</v>
       </c>
       <c r="G246" t="n">
         <v>5.337026569771616</v>
       </c>
       <c r="J246" t="n">
-        <v>0.05058330704071443</v>
+        <v>0.04598766734824281</v>
       </c>
       <c r="K246" t="n">
         <v>5.337026569771616</v>
       </c>
       <c r="L246" t="n">
-        <v>0.05488585204767513</v>
+        <v>0.07443064664999942</v>
       </c>
       <c r="M246" t="n">
         <v>5.337026569771616</v>
       </c>
       <c r="N246" t="n">
-        <v>0.09490863373783218</v>
+        <v>0.08045553114314655</v>
       </c>
       <c r="O246" t="n">
         <v>5.337026569771616</v>
@@ -7597,25 +7597,25 @@
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.05227665941792448</v>
+        <v>0.04639962786809542</v>
       </c>
       <c r="G247" t="n">
         <v>5.366512904411239</v>
       </c>
       <c r="J247" t="n">
-        <v>0.05227665941792448</v>
+        <v>0.04639962786809542</v>
       </c>
       <c r="K247" t="n">
         <v>5.366512904411239</v>
       </c>
       <c r="L247" t="n">
-        <v>0.05410249683086182</v>
+        <v>0.07394564564389708</v>
       </c>
       <c r="M247" t="n">
         <v>5.366512904411239</v>
       </c>
       <c r="N247" t="n">
-        <v>0.09457278338325466</v>
+        <v>0.08005638313532495</v>
       </c>
       <c r="O247" t="n">
         <v>5.366512904411239</v>
@@ -7623,25 +7623,25 @@
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.05236767520185103</v>
+        <v>0.04587020932497368</v>
       </c>
       <c r="G248" t="n">
         <v>5.395999239050861</v>
       </c>
       <c r="J248" t="n">
-        <v>0.05236767520185103</v>
+        <v>0.04587020932497368</v>
       </c>
       <c r="K248" t="n">
         <v>5.395999239050861</v>
       </c>
       <c r="L248" t="n">
-        <v>0.0547880840059044</v>
+        <v>0.07371689394616462</v>
       </c>
       <c r="M248" t="n">
         <v>5.395999239050861</v>
       </c>
       <c r="N248" t="n">
-        <v>0.0945940059127791</v>
+        <v>0.08106161422290903</v>
       </c>
       <c r="O248" t="n">
         <v>5.395999239050861</v>
@@ -7649,25 +7649,25 @@
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.05164473014541448</v>
+        <v>0.04553990539483726</v>
       </c>
       <c r="G249" t="n">
         <v>5.425485573690483</v>
       </c>
       <c r="J249" t="n">
-        <v>0.05164473014541448</v>
+        <v>0.04553990539483726</v>
       </c>
       <c r="K249" t="n">
         <v>5.425485573690483</v>
       </c>
       <c r="L249" t="n">
-        <v>0.05563475988353778</v>
+        <v>0.07622065664392809</v>
       </c>
       <c r="M249" t="n">
         <v>5.425485573690483</v>
       </c>
       <c r="N249" t="n">
-        <v>0.09596469001413654</v>
+        <v>0.08028789393579995</v>
       </c>
       <c r="O249" t="n">
         <v>5.425485573690483</v>
@@ -7675,25 +7675,25 @@
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.05093778135505123</v>
+        <v>0.04509861650810604</v>
       </c>
       <c r="G250" t="n">
         <v>5.454971908330105</v>
       </c>
       <c r="J250" t="n">
-        <v>0.05093778135505123</v>
+        <v>0.04509861650810604</v>
       </c>
       <c r="K250" t="n">
         <v>5.454971908330105</v>
       </c>
       <c r="L250" t="n">
-        <v>0.05381101476724057</v>
+        <v>0.07453721839316199</v>
       </c>
       <c r="M250" t="n">
         <v>5.454971908330105</v>
       </c>
       <c r="N250" t="n">
-        <v>0.09578522702209982</v>
+        <v>0.08188226954563968</v>
       </c>
       <c r="O250" t="n">
         <v>5.454971908330105</v>
@@ -7701,25 +7701,25 @@
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.05180685315276416</v>
+        <v>0.04457005114457516</v>
       </c>
       <c r="G251" t="n">
         <v>5.484458242969727</v>
       </c>
       <c r="J251" t="n">
-        <v>0.05180685315276416</v>
+        <v>0.04457005114457516</v>
       </c>
       <c r="K251" t="n">
         <v>5.484458242969727</v>
       </c>
       <c r="L251" t="n">
-        <v>0.05520995396274554</v>
+        <v>0.07590196132812872</v>
       </c>
       <c r="M251" t="n">
         <v>5.484458242969727</v>
       </c>
       <c r="N251" t="n">
-        <v>0.09442752830423186</v>
+        <v>0.08159254160162212</v>
       </c>
       <c r="O251" t="n">
         <v>5.484458242969727</v>
@@ -7727,25 +7727,25 @@
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.05098459711625543</v>
+        <v>0.04420712355385609</v>
       </c>
       <c r="G252" t="n">
         <v>5.513944577609349</v>
       </c>
       <c r="J252" t="n">
-        <v>0.05098459711625543</v>
+        <v>0.04420712355385609</v>
       </c>
       <c r="K252" t="n">
         <v>5.513944577609349</v>
       </c>
       <c r="L252" t="n">
-        <v>0.05565127723471235</v>
+        <v>0.07524658738298581</v>
       </c>
       <c r="M252" t="n">
         <v>5.513944577609349</v>
       </c>
       <c r="N252" t="n">
-        <v>0.09549060255435086</v>
+        <v>0.08049145694037162</v>
       </c>
       <c r="O252" t="n">
         <v>5.513944577609349</v>
@@ -7753,25 +7753,25 @@
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.05217826782294147</v>
+        <v>0.04371752148059306</v>
       </c>
       <c r="G253" t="n">
         <v>5.543430912248971</v>
       </c>
       <c r="J253" t="n">
-        <v>0.05217826782294147</v>
+        <v>0.04371752148059306</v>
       </c>
       <c r="K253" t="n">
         <v>5.543430912248971</v>
       </c>
       <c r="L253" t="n">
-        <v>0.05533969009397804</v>
+        <v>0.07473693380190412</v>
       </c>
       <c r="M253" t="n">
         <v>5.543430912248971</v>
       </c>
       <c r="N253" t="n">
-        <v>0.09469498689566792</v>
+        <v>0.08212357351591924</v>
       </c>
       <c r="O253" t="n">
         <v>5.543430912248971</v>
@@ -7779,25 +7779,25 @@
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.05221560384592119</v>
+        <v>0.04499286845670949</v>
       </c>
       <c r="G254" t="n">
         <v>5.572917246888593</v>
       </c>
       <c r="J254" t="n">
-        <v>0.05221560384592119</v>
+        <v>0.04499286845670949</v>
       </c>
       <c r="K254" t="n">
         <v>5.572917246888593</v>
       </c>
       <c r="L254" t="n">
-        <v>0.05353388682576675</v>
+        <v>0.07429132003469086</v>
       </c>
       <c r="M254" t="n">
         <v>5.572917246888593</v>
       </c>
       <c r="N254" t="n">
-        <v>0.09570590625396183</v>
+        <v>0.08176866463837412</v>
       </c>
       <c r="O254" t="n">
         <v>5.572917246888593</v>
@@ -7805,25 +7805,25 @@
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.05175391426967572</v>
+        <v>0.04343658330536351</v>
       </c>
       <c r="G255" t="n">
         <v>5.602403581528216</v>
       </c>
       <c r="J255" t="n">
-        <v>0.05175391426967572</v>
+        <v>0.04343658330536351</v>
       </c>
       <c r="K255" t="n">
         <v>5.602403581528216</v>
       </c>
       <c r="L255" t="n">
-        <v>0.05464430986224154</v>
+        <v>0.07677660887401314</v>
       </c>
       <c r="M255" t="n">
         <v>5.602403581528216</v>
       </c>
       <c r="N255" t="n">
-        <v>0.09330375048729</v>
+        <v>0.08335480233804846</v>
       </c>
       <c r="O255" t="n">
         <v>5.602403581528216</v>
@@ -7831,25 +7831,25 @@
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.0509662307060133</v>
+        <v>0.04447078521943278</v>
       </c>
       <c r="G256" t="n">
         <v>5.631889916167838</v>
       </c>
       <c r="J256" t="n">
-        <v>0.0509662307060133</v>
+        <v>0.04447078521943278</v>
       </c>
       <c r="K256" t="n">
         <v>5.631889916167838</v>
       </c>
       <c r="L256" t="n">
-        <v>0.05359352350979847</v>
+        <v>0.07502488529058562</v>
       </c>
       <c r="M256" t="n">
         <v>5.631889916167838</v>
       </c>
       <c r="N256" t="n">
-        <v>0.09208619529775075</v>
+        <v>0.08367838349311574</v>
       </c>
       <c r="O256" t="n">
         <v>5.631889916167838</v>
@@ -7857,25 +7857,25 @@
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.05115037095565949</v>
+        <v>0.04360779133287832</v>
       </c>
       <c r="G257" t="n">
         <v>5.66137625080746</v>
       </c>
       <c r="J257" t="n">
-        <v>0.05115037095565949</v>
+        <v>0.04360779133287832</v>
       </c>
       <c r="K257" t="n">
         <v>5.66137625080746</v>
       </c>
       <c r="L257" t="n">
-        <v>0.05405579334044169</v>
+        <v>0.07506799218314805</v>
       </c>
       <c r="M257" t="n">
         <v>5.66137625080746</v>
       </c>
       <c r="N257" t="n">
-        <v>0.09387144215927626</v>
+        <v>0.08359982800938909</v>
       </c>
       <c r="O257" t="n">
         <v>5.66137625080746</v>
@@ -7883,25 +7883,25 @@
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.0517862121485286</v>
+        <v>0.04351439605368444</v>
       </c>
       <c r="G258" t="n">
         <v>5.690862585447082</v>
       </c>
       <c r="J258" t="n">
-        <v>0.0517862121485286</v>
+        <v>0.04351439605368444</v>
       </c>
       <c r="K258" t="n">
         <v>5.690862585447082</v>
       </c>
       <c r="L258" t="n">
-        <v>0.0547419529066108</v>
+        <v>0.07606451792178685</v>
       </c>
       <c r="M258" t="n">
         <v>5.690862585447082</v>
       </c>
       <c r="N258" t="n">
-        <v>0.0932189750762048</v>
+        <v>0.08544837766541585</v>
       </c>
       <c r="O258" t="n">
         <v>5.690862585447082</v>
@@ -7909,25 +7909,25 @@
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.052460087780716</v>
+        <v>0.04365416020832902</v>
       </c>
       <c r="G259" t="n">
         <v>5.720348920086704</v>
       </c>
       <c r="J259" t="n">
-        <v>0.052460087780716</v>
+        <v>0.04365416020832902</v>
       </c>
       <c r="K259" t="n">
         <v>5.720348920086704</v>
       </c>
       <c r="L259" t="n">
-        <v>0.05323040207192835</v>
+        <v>0.07632502192620266</v>
       </c>
       <c r="M259" t="n">
         <v>5.720348920086704</v>
       </c>
       <c r="N259" t="n">
-        <v>0.09435800799028295</v>
+        <v>0.08437574066147852</v>
       </c>
       <c r="O259" t="n">
         <v>5.720348920086704</v>
@@ -7935,25 +7935,25 @@
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.05167709247730229</v>
+        <v>0.04208961786705262</v>
       </c>
       <c r="G260" t="n">
         <v>5.749835254726326</v>
       </c>
       <c r="J260" t="n">
-        <v>0.05167709247730229</v>
+        <v>0.04208961786705262</v>
       </c>
       <c r="K260" t="n">
         <v>5.749835254726326</v>
       </c>
       <c r="L260" t="n">
-        <v>0.0541350949154397</v>
+        <v>0.07745273608116147</v>
       </c>
       <c r="M260" t="n">
         <v>5.749835254726326</v>
       </c>
       <c r="N260" t="n">
-        <v>0.09215729473569038</v>
+        <v>0.08397217518840523</v>
       </c>
       <c r="O260" t="n">
         <v>5.749835254726326</v>
@@ -7961,25 +7961,25 @@
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.05124824162989176</v>
+        <v>0.0428894479107119</v>
       </c>
       <c r="G261" t="n">
         <v>5.779321589365948</v>
       </c>
       <c r="J261" t="n">
-        <v>0.05124824162989176</v>
+        <v>0.0428894479107119</v>
       </c>
       <c r="K261" t="n">
         <v>5.779321589365948</v>
       </c>
       <c r="L261" t="n">
-        <v>0.05392667357868076</v>
+        <v>0.07608222200735798</v>
       </c>
       <c r="M261" t="n">
         <v>5.779321589365948</v>
       </c>
       <c r="N261" t="n">
-        <v>0.09343049250507664</v>
+        <v>0.08476948973180636</v>
       </c>
       <c r="O261" t="n">
         <v>5.779321589365948</v>
@@ -7987,25 +7987,25 @@
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.05276858206757307</v>
+        <v>0.04321572384502607</v>
       </c>
       <c r="G262" t="n">
         <v>5.808807924005571</v>
       </c>
       <c r="J262" t="n">
-        <v>0.05276858206757307</v>
+        <v>0.04321572384502607</v>
       </c>
       <c r="K262" t="n">
         <v>5.808807924005571</v>
       </c>
       <c r="L262" t="n">
-        <v>0.05474233306663494</v>
+        <v>0.07737831693482623</v>
       </c>
       <c r="M262" t="n">
         <v>5.808807924005571</v>
       </c>
       <c r="N262" t="n">
-        <v>0.09442309447635587</v>
+        <v>0.08630255000928123</v>
       </c>
       <c r="O262" t="n">
         <v>5.808807924005571</v>
@@ -8013,25 +8013,25 @@
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.05202512847122832</v>
+        <v>0.04205352810475025</v>
       </c>
       <c r="G263" t="n">
         <v>5.838294258645194</v>
       </c>
       <c r="J263" t="n">
-        <v>0.05202512847122832</v>
+        <v>0.04205352810475025</v>
       </c>
       <c r="K263" t="n">
         <v>5.838294258645194</v>
       </c>
       <c r="L263" t="n">
-        <v>0.05426774992218349</v>
+        <v>0.07685802602438732</v>
       </c>
       <c r="M263" t="n">
         <v>5.838294258645194</v>
       </c>
       <c r="N263" t="n">
-        <v>0.0941005793763622</v>
+        <v>0.08710129047056983</v>
       </c>
       <c r="O263" t="n">
         <v>5.838294258645194</v>
@@ -8039,25 +8039,25 @@
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.05103077797326851</v>
+        <v>0.04212523978988113</v>
       </c>
       <c r="G264" t="n">
         <v>5.867780593284816</v>
       </c>
       <c r="J264" t="n">
-        <v>0.05103077797326851</v>
+        <v>0.04212523978988113</v>
       </c>
       <c r="K264" t="n">
         <v>5.867780593284816</v>
       </c>
       <c r="L264" t="n">
-        <v>0.05328471175352573</v>
+        <v>0.07648697648276982</v>
       </c>
       <c r="M264" t="n">
         <v>5.867780593284816</v>
       </c>
       <c r="N264" t="n">
-        <v>0.09160010539368245</v>
+        <v>0.0877876635445111</v>
       </c>
       <c r="O264" t="n">
         <v>5.867780593284816</v>
